--- a/teensy4theremin/kicad/teensy4_pins_layout.xlsx
+++ b/teensy4theremin/kicad/teensy4_pins_layout.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="160">
   <si>
     <t>GND</t>
   </si>
@@ -481,6 +481,33 @@
   </si>
   <si>
     <t>3V3</t>
+  </si>
+  <si>
+    <t>double inverters, 0.5pf</t>
+  </si>
+  <si>
+    <t>0.1uF R0, Cq=0pF, cbuf=0.5pF</t>
+  </si>
+  <si>
+    <t>5.6mH</t>
+  </si>
+  <si>
+    <t>73V</t>
+  </si>
+  <si>
+    <t>121V</t>
+  </si>
+  <si>
+    <t>0.1mm*45mm winding</t>
+  </si>
+  <si>
+    <t>R0, Cq=0pF, cbuf=0.5pF</t>
+  </si>
+  <si>
+    <t>100K buf</t>
+  </si>
+  <si>
+    <t>116V</t>
   </si>
 </sst>
 </file>
@@ -25241,8 +25268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:AL747"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I288" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T304" sqref="T304"/>
+    <sheetView tabSelected="1" topLeftCell="I132" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C145" sqref="C145:I145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25250,6 +25277,7 @@
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1"/>
     <col min="14" max="14" width="20.140625" customWidth="1"/>
     <col min="16" max="16" width="10.5703125" customWidth="1"/>
     <col min="18" max="18" width="14.5703125" customWidth="1"/>
@@ -38173,6 +38201,38 @@
         <f t="shared" si="40"/>
         <v>1.9200000000000003E-6</v>
       </c>
+      <c r="N311" t="s">
+        <v>151</v>
+      </c>
+      <c r="O311" t="s">
+        <v>133</v>
+      </c>
+      <c r="P311" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q311" t="s">
+        <v>117</v>
+      </c>
+      <c r="R311" t="s">
+        <v>152</v>
+      </c>
+      <c r="S311">
+        <v>1.6379999999999999</v>
+      </c>
+      <c r="T311">
+        <v>2.956</v>
+      </c>
+      <c r="U311">
+        <f>T311-S311</f>
+        <v>1.3180000000000001</v>
+      </c>
+      <c r="V311">
+        <f>1/U311</f>
+        <v>0.75872534142640358</v>
+      </c>
+      <c r="W311" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="312" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C312">
@@ -38202,6 +38262,16 @@
         <f t="shared" si="40"/>
         <v>1.9250000000000002E-6</v>
       </c>
+      <c r="S312">
+        <v>1.11772</v>
+      </c>
+      <c r="T312">
+        <v>1.1362300000000001</v>
+      </c>
+      <c r="U312">
+        <f>T312-S312</f>
+        <v>1.8510000000000026E-2</v>
+      </c>
     </row>
     <row r="313" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C313">
@@ -38231,6 +38301,18 @@
         <f t="shared" si="40"/>
         <v>1.9300000000000002E-6</v>
       </c>
+      <c r="U313">
+        <f>U312/U311</f>
+        <v>1.4044006069802752E-2</v>
+      </c>
+      <c r="V313">
+        <f>U313*4</f>
+        <v>5.6176024279211006E-2</v>
+      </c>
+      <c r="W313">
+        <f>1/U313</f>
+        <v>71.204754186925882</v>
+      </c>
     </row>
     <row r="314" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C314">
@@ -38318,6 +38400,38 @@
         <f t="shared" si="40"/>
         <v>1.945E-6</v>
       </c>
+      <c r="N316" t="s">
+        <v>151</v>
+      </c>
+      <c r="O316" t="s">
+        <v>153</v>
+      </c>
+      <c r="P316" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q316" t="s">
+        <v>117</v>
+      </c>
+      <c r="R316" t="s">
+        <v>152</v>
+      </c>
+      <c r="S316">
+        <v>1.508</v>
+      </c>
+      <c r="T316">
+        <v>3.01</v>
+      </c>
+      <c r="U316">
+        <f>T316-S316</f>
+        <v>1.5019999999999998</v>
+      </c>
+      <c r="V316">
+        <f>1/U316</f>
+        <v>0.66577896138482029</v>
+      </c>
+      <c r="W316" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="317" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C317">
@@ -38347,6 +38461,16 @@
         <f t="shared" si="40"/>
         <v>1.95E-6</v>
       </c>
+      <c r="S317">
+        <v>2.48251</v>
+      </c>
+      <c r="T317">
+        <v>2.4997500000000001</v>
+      </c>
+      <c r="U317">
+        <f>T317-S317</f>
+        <v>1.7240000000000144E-2</v>
+      </c>
     </row>
     <row r="318" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C318">
@@ -38376,6 +38500,18 @@
         <f t="shared" si="40"/>
         <v>1.9549999999999999E-6</v>
       </c>
+      <c r="U318">
+        <f>U317/U316</f>
+        <v>1.1478029294274399E-2</v>
+      </c>
+      <c r="V318">
+        <f>U318*4</f>
+        <v>4.5912117177097596E-2</v>
+      </c>
+      <c r="W318">
+        <f>1/U318</f>
+        <v>87.122969837586268</v>
+      </c>
     </row>
     <row r="319" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C319">
@@ -38434,8 +38570,40 @@
         <f t="shared" si="40"/>
         <v>1.9650000000000002E-6</v>
       </c>
-    </row>
-    <row r="321" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="N320" t="s">
+        <v>151</v>
+      </c>
+      <c r="O320" t="s">
+        <v>131</v>
+      </c>
+      <c r="P320" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q320" t="s">
+        <v>117</v>
+      </c>
+      <c r="R320" t="s">
+        <v>157</v>
+      </c>
+      <c r="S320">
+        <v>1.5529999999999999</v>
+      </c>
+      <c r="T320">
+        <v>2.6269999999999998</v>
+      </c>
+      <c r="U320">
+        <f>T320-S320</f>
+        <v>1.0739999999999998</v>
+      </c>
+      <c r="V320">
+        <f>1/U320</f>
+        <v>0.93109869646182508</v>
+      </c>
+      <c r="W320" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="321" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C321">
         <v>394</v>
       </c>
@@ -38463,8 +38631,21 @@
         <f t="shared" si="40"/>
         <v>1.9700000000000002E-6</v>
       </c>
-    </row>
-    <row r="322" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="N321" t="s">
+        <v>156</v>
+      </c>
+      <c r="S321">
+        <v>1.6596500000000001</v>
+      </c>
+      <c r="T321">
+        <v>1.6792100000000001</v>
+      </c>
+      <c r="U321">
+        <f>T321-S321</f>
+        <v>1.9560000000000022E-2</v>
+      </c>
+    </row>
+    <row r="322" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C322">
         <v>395</v>
       </c>
@@ -38492,8 +38673,20 @@
         <f t="shared" si="40"/>
         <v>1.9750000000000001E-6</v>
       </c>
-    </row>
-    <row r="323" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="U322">
+        <f>U321/U320</f>
+        <v>1.821229050279332E-2</v>
+      </c>
+      <c r="V322">
+        <f>U322*4</f>
+        <v>7.284916201117328E-2</v>
+      </c>
+      <c r="W322">
+        <f>1/U322</f>
+        <v>54.907975460122628</v>
+      </c>
+    </row>
+    <row r="323" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C323">
         <v>396</v>
       </c>
@@ -38522,7 +38715,7 @@
         <v>1.9800000000000001E-6</v>
       </c>
     </row>
-    <row r="324" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C324">
         <v>397</v>
       </c>
@@ -38550,8 +38743,40 @@
         <f t="shared" si="40"/>
         <v>1.9850000000000001E-6</v>
       </c>
-    </row>
-    <row r="325" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="N324" t="s">
+        <v>151</v>
+      </c>
+      <c r="O324" t="s">
+        <v>131</v>
+      </c>
+      <c r="P324" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q324" t="s">
+        <v>117</v>
+      </c>
+      <c r="R324" t="s">
+        <v>147</v>
+      </c>
+      <c r="S324">
+        <v>1.966</v>
+      </c>
+      <c r="T324">
+        <v>3.0659999999999998</v>
+      </c>
+      <c r="U324">
+        <f>T324-S324</f>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="V324">
+        <f>1/U324</f>
+        <v>0.90909090909090917</v>
+      </c>
+      <c r="W324" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="325" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C325">
         <v>398</v>
       </c>
@@ -38579,8 +38804,21 @@
         <f t="shared" si="40"/>
         <v>1.99E-6</v>
       </c>
-    </row>
-    <row r="326" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="N325" t="s">
+        <v>156</v>
+      </c>
+      <c r="S325">
+        <v>2.0705399999999998</v>
+      </c>
+      <c r="T325">
+        <v>2.0872299999999999</v>
+      </c>
+      <c r="U325">
+        <f>T325-S325</f>
+        <v>1.6690000000000094E-2</v>
+      </c>
+    </row>
+    <row r="326" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C326">
         <v>399</v>
       </c>
@@ -38608,8 +38846,20 @@
         <f t="shared" ref="I326:I389" si="46">1/($D$2/C326)</f>
         <v>1.995E-6</v>
       </c>
-    </row>
-    <row r="327" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="U326">
+        <f>U325/U324</f>
+        <v>1.517272727272736E-2</v>
+      </c>
+      <c r="V326">
+        <f>U326*4</f>
+        <v>6.0690909090909441E-2</v>
+      </c>
+      <c r="W326">
+        <f>1/U326</f>
+        <v>65.907729179148816</v>
+      </c>
+    </row>
+    <row r="327" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C327">
         <v>400</v>
       </c>
@@ -38638,7 +38888,7 @@
         <v>1.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="328" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C328">
         <v>401</v>
       </c>
@@ -38666,8 +38916,40 @@
         <f t="shared" si="46"/>
         <v>2.0049999999999999E-6</v>
       </c>
-    </row>
-    <row r="329" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="N328" t="s">
+        <v>151</v>
+      </c>
+      <c r="O328" t="s">
+        <v>131</v>
+      </c>
+      <c r="P328" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q328" t="s">
+        <v>117</v>
+      </c>
+      <c r="R328" t="s">
+        <v>147</v>
+      </c>
+      <c r="S328">
+        <v>1.966</v>
+      </c>
+      <c r="T328">
+        <v>3.0659999999999998</v>
+      </c>
+      <c r="U328">
+        <f>T328-S328</f>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="V328">
+        <f>1/U328</f>
+        <v>0.90909090909090917</v>
+      </c>
+      <c r="W328" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="329" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C329">
         <v>402</v>
       </c>
@@ -38695,8 +38977,21 @@
         <f t="shared" si="46"/>
         <v>2.0100000000000002E-6</v>
       </c>
-    </row>
-    <row r="330" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="N329" t="s">
+        <v>156</v>
+      </c>
+      <c r="S329">
+        <v>1.4709399999999999</v>
+      </c>
+      <c r="T329">
+        <v>1.4884900000000001</v>
+      </c>
+      <c r="U329">
+        <f>T329-S329</f>
+        <v>1.7550000000000177E-2</v>
+      </c>
+    </row>
+    <row r="330" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C330">
         <v>403</v>
       </c>
@@ -38724,8 +39019,23 @@
         <f t="shared" si="46"/>
         <v>2.0150000000000002E-6</v>
       </c>
-    </row>
-    <row r="331" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="N330" t="s">
+        <v>158</v>
+      </c>
+      <c r="U330">
+        <f>U329/U328</f>
+        <v>1.5954545454545617E-2</v>
+      </c>
+      <c r="V330">
+        <f>U330*4</f>
+        <v>6.3818181818182468E-2</v>
+      </c>
+      <c r="W330">
+        <f>1/U330</f>
+        <v>62.678062678062041</v>
+      </c>
+    </row>
+    <row r="331" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C331">
         <v>404</v>
       </c>
@@ -38754,7 +39064,7 @@
         <v>2.0200000000000001E-6</v>
       </c>
     </row>
-    <row r="332" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C332">
         <v>405</v>
       </c>
@@ -38783,7 +39093,7 @@
         <v>2.0250000000000001E-6</v>
       </c>
     </row>
-    <row r="333" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C333">
         <v>406</v>
       </c>
@@ -38812,7 +39122,7 @@
         <v>2.03E-6</v>
       </c>
     </row>
-    <row r="334" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C334">
         <v>407</v>
       </c>
@@ -38841,7 +39151,7 @@
         <v>2.035E-6</v>
       </c>
     </row>
-    <row r="335" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C335">
         <v>408</v>
       </c>
@@ -38870,7 +39180,7 @@
         <v>2.04E-6</v>
       </c>
     </row>
-    <row r="336" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C336">
         <v>409</v>
       </c>

--- a/teensy4theremin/kicad/teensy4_pins_layout.xlsx
+++ b/teensy4theremin/kicad/teensy4_pins_layout.xlsx
@@ -17,6 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="174">
   <si>
     <t>GND</t>
   </si>
@@ -509,6 +510,48 @@
   <si>
     <t>116V</t>
   </si>
+  <si>
+    <t>1.5mH</t>
+  </si>
+  <si>
+    <t>180V</t>
+  </si>
+  <si>
+    <t>0.1mm*31mm winding</t>
+  </si>
+  <si>
+    <t>Cbuf=2.2/3 pf, Cpar = 3.3/3 pf</t>
+  </si>
+  <si>
+    <t>Cbuf=2.2/3 pf, Cpar = 6.8/3 pf</t>
+  </si>
+  <si>
+    <t>single inv 5V, Cfeed=0.1uF</t>
+  </si>
+  <si>
+    <t>Cbuf=2.2/3 pf, Cpar = 0 pf</t>
+  </si>
+  <si>
+    <t>single inv 5V, feed = R0</t>
+  </si>
+  <si>
+    <t>single inv 5V, feed = 0.1uF</t>
+  </si>
+  <si>
+    <t>186V</t>
+  </si>
+  <si>
+    <t>2.5mH</t>
+  </si>
+  <si>
+    <t>2mH</t>
+  </si>
+  <si>
+    <t>1.8mH</t>
+  </si>
+  <si>
+    <t>1mH</t>
+  </si>
 </sst>
 </file>
 
@@ -519,7 +562,7 @@
     <numFmt numFmtId="165" formatCode="0.00000000"/>
     <numFmt numFmtId="166" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,8 +570,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,6 +623,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -599,7 +657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -633,6 +691,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -22370,8 +22436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:W111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R10" sqref="R10:W109"/>
+    <sheetView topLeftCell="B70" workbookViewId="0">
+      <selection activeCell="U93" sqref="U93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25268,8 +25334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:AL747"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I132" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145:I145"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25278,7 +25344,7 @@
     <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12.7109375" customWidth="1"/>
     <col min="13" max="13" width="11.7109375" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" customWidth="1"/>
     <col min="16" max="16" width="10.5703125" customWidth="1"/>
     <col min="18" max="18" width="14.5703125" customWidth="1"/>
     <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
@@ -28780,11 +28846,11 @@
         <f t="shared" si="18"/>
         <v>76</v>
       </c>
-      <c r="H79" s="16">
+      <c r="H79" s="21">
         <f t="shared" si="19"/>
         <v>3.8000000000000001E-7</v>
       </c>
-      <c r="I79" s="16">
+      <c r="I79" s="21">
         <f t="shared" si="20"/>
         <v>7.6000000000000003E-7</v>
       </c>
@@ -28870,11 +28936,11 @@
         <f t="shared" si="18"/>
         <v>77</v>
       </c>
-      <c r="H82" s="16">
+      <c r="H82" s="22">
         <f t="shared" si="19"/>
         <v>3.8500000000000002E-7</v>
       </c>
-      <c r="I82" s="16">
+      <c r="I82" s="22">
         <f t="shared" si="20"/>
         <v>7.750000000000001E-7</v>
       </c>
@@ -29106,6 +29172,9 @@
         <f t="shared" si="20"/>
         <v>7.9999999999999996E-7</v>
       </c>
+      <c r="K87">
+        <v>131</v>
+      </c>
       <c r="N87">
         <v>0.5</v>
       </c>
@@ -29149,6 +29218,9 @@
         <f t="shared" si="20"/>
         <v>8.0500000000000002E-7</v>
       </c>
+      <c r="K88">
+        <v>116</v>
+      </c>
       <c r="N88">
         <v>0.6</v>
       </c>
@@ -29199,6 +29271,9 @@
         <f t="shared" si="20"/>
         <v>8.0999999999999997E-7</v>
       </c>
+      <c r="K89">
+        <v>87</v>
+      </c>
       <c r="N89">
         <v>0.7</v>
       </c>
@@ -29297,6 +29372,9 @@
         <f t="shared" si="20"/>
         <v>8.1999999999999998E-7</v>
       </c>
+      <c r="K91">
+        <v>51</v>
+      </c>
       <c r="N91">
         <v>0.9</v>
       </c>
@@ -29377,6 +29455,9 @@
         <f t="shared" si="20"/>
         <v>8.300000000000001E-7</v>
       </c>
+      <c r="K93">
+        <v>35</v>
+      </c>
       <c r="N93">
         <v>1.1000000000000001</v>
       </c>
@@ -30830,7 +30911,7 @@
         <f t="shared" si="19"/>
         <v>4.8999999999999997E-7</v>
       </c>
-      <c r="I124" s="16">
+      <c r="I124" s="21">
         <f t="shared" si="20"/>
         <v>9.850000000000001E-7</v>
       </c>
@@ -39121,6 +39202,38 @@
         <f t="shared" si="46"/>
         <v>2.03E-6</v>
       </c>
+      <c r="N333" t="s">
+        <v>165</v>
+      </c>
+      <c r="O333" t="s">
+        <v>160</v>
+      </c>
+      <c r="P333" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q333" t="s">
+        <v>117</v>
+      </c>
+      <c r="R333" t="s">
+        <v>163</v>
+      </c>
+      <c r="S333">
+        <v>1.6839999999999999</v>
+      </c>
+      <c r="T333">
+        <v>2.484</v>
+      </c>
+      <c r="U333">
+        <f>T333-S333</f>
+        <v>0.8</v>
+      </c>
+      <c r="V333">
+        <f>1/U333</f>
+        <v>1.25</v>
+      </c>
+      <c r="W333" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="334" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C334">
@@ -39150,6 +39263,19 @@
         <f t="shared" si="46"/>
         <v>2.035E-6</v>
       </c>
+      <c r="N334" t="s">
+        <v>162</v>
+      </c>
+      <c r="S334">
+        <v>1.6843999999999999</v>
+      </c>
+      <c r="T334">
+        <v>1.7035</v>
+      </c>
+      <c r="U334">
+        <f>T334-S334</f>
+        <v>1.9100000000000117E-2</v>
+      </c>
     </row>
     <row r="335" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C335">
@@ -39179,6 +39305,18 @@
         <f t="shared" si="46"/>
         <v>2.04E-6</v>
       </c>
+      <c r="U335">
+        <f>U334/U333</f>
+        <v>2.3875000000000146E-2</v>
+      </c>
+      <c r="V335">
+        <f>U335*4</f>
+        <v>9.5500000000000584E-2</v>
+      </c>
+      <c r="W335">
+        <f>1/U335</f>
+        <v>41.884816753926444</v>
+      </c>
     </row>
     <row r="336" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C336">
@@ -39209,7 +39347,7 @@
         <v>2.0449999999999999E-6</v>
       </c>
     </row>
-    <row r="337" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C337">
         <v>410</v>
       </c>
@@ -39237,8 +39375,40 @@
         <f t="shared" si="46"/>
         <v>2.0499999999999999E-6</v>
       </c>
-    </row>
-    <row r="338" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="N337" t="s">
+        <v>165</v>
+      </c>
+      <c r="O337" t="s">
+        <v>160</v>
+      </c>
+      <c r="P337" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q337" t="s">
+        <v>117</v>
+      </c>
+      <c r="R337" t="s">
+        <v>164</v>
+      </c>
+      <c r="S337">
+        <v>1.7158</v>
+      </c>
+      <c r="T337">
+        <v>2.5606</v>
+      </c>
+      <c r="U337">
+        <f>T337-S337</f>
+        <v>0.8448</v>
+      </c>
+      <c r="V337">
+        <f>1/U337</f>
+        <v>1.1837121212121213</v>
+      </c>
+      <c r="W337" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="338" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C338">
         <v>411</v>
       </c>
@@ -39266,8 +39436,21 @@
         <f t="shared" si="46"/>
         <v>2.0549999999999998E-6</v>
       </c>
-    </row>
-    <row r="339" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="N338" t="s">
+        <v>162</v>
+      </c>
+      <c r="S338">
+        <v>1.74027</v>
+      </c>
+      <c r="T338">
+        <v>1.75379</v>
+      </c>
+      <c r="U338">
+        <f>T338-S338</f>
+        <v>1.3519999999999976E-2</v>
+      </c>
+    </row>
+    <row r="339" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C339">
         <v>412</v>
       </c>
@@ -39295,8 +39478,20 @@
         <f t="shared" si="46"/>
         <v>2.0600000000000002E-6</v>
       </c>
-    </row>
-    <row r="340" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="U339">
+        <f>U338/U337</f>
+        <v>1.600378787878785E-2</v>
+      </c>
+      <c r="V339">
+        <f>U339*4</f>
+        <v>6.40151515151514E-2</v>
+      </c>
+      <c r="W339">
+        <f>1/U339</f>
+        <v>62.485207100591829</v>
+      </c>
+    </row>
+    <row r="340" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C340">
         <v>413</v>
       </c>
@@ -39325,7 +39520,7 @@
         <v>2.0650000000000001E-6</v>
       </c>
     </row>
-    <row r="341" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C341">
         <v>414</v>
       </c>
@@ -39353,8 +39548,40 @@
         <f t="shared" si="46"/>
         <v>2.0700000000000001E-6</v>
       </c>
-    </row>
-    <row r="342" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="N341" t="s">
+        <v>165</v>
+      </c>
+      <c r="O341" t="s">
+        <v>160</v>
+      </c>
+      <c r="P341" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q341" t="s">
+        <v>117</v>
+      </c>
+      <c r="R341" t="s">
+        <v>166</v>
+      </c>
+      <c r="S341">
+        <v>1.3955</v>
+      </c>
+      <c r="T341">
+        <v>2.1554000000000002</v>
+      </c>
+      <c r="U341">
+        <f>T341-S341</f>
+        <v>0.75990000000000024</v>
+      </c>
+      <c r="V341">
+        <f>1/U341</f>
+        <v>1.3159626266614024</v>
+      </c>
+      <c r="W341" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="342" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C342">
         <v>415</v>
       </c>
@@ -39382,8 +39609,21 @@
         <f t="shared" si="46"/>
         <v>2.075E-6</v>
       </c>
-    </row>
-    <row r="343" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="N342" t="s">
+        <v>162</v>
+      </c>
+      <c r="S342">
+        <v>1.80742</v>
+      </c>
+      <c r="T342">
+        <v>1.8229</v>
+      </c>
+      <c r="U342">
+        <f>T342-S342</f>
+        <v>1.5479999999999938E-2</v>
+      </c>
+    </row>
+    <row r="343" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C343">
         <v>416</v>
       </c>
@@ -39411,8 +39651,20 @@
         <f t="shared" si="46"/>
         <v>2.08E-6</v>
       </c>
-    </row>
-    <row r="344" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="U343">
+        <f>U342/U341</f>
+        <v>2.0371101460718428E-2</v>
+      </c>
+      <c r="V343">
+        <f>U343*4</f>
+        <v>8.1484405842873711E-2</v>
+      </c>
+      <c r="W343">
+        <f>1/U343</f>
+        <v>49.08914728682192</v>
+      </c>
+    </row>
+    <row r="344" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C344">
         <v>417</v>
       </c>
@@ -39441,7 +39693,7 @@
         <v>2.0849999999999999E-6</v>
       </c>
     </row>
-    <row r="345" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C345">
         <v>418</v>
       </c>
@@ -39469,8 +39721,40 @@
         <f t="shared" si="46"/>
         <v>2.0900000000000003E-6</v>
       </c>
-    </row>
-    <row r="346" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="N345" t="s">
+        <v>165</v>
+      </c>
+      <c r="O345" t="s">
+        <v>160</v>
+      </c>
+      <c r="P345" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q345" t="s">
+        <v>117</v>
+      </c>
+      <c r="R345" t="s">
+        <v>166</v>
+      </c>
+      <c r="S345">
+        <v>1.7049000000000001</v>
+      </c>
+      <c r="T345">
+        <v>2.4601999999999999</v>
+      </c>
+      <c r="U345">
+        <f>T345-S345</f>
+        <v>0.75529999999999986</v>
+      </c>
+      <c r="V345">
+        <f>1/U345</f>
+        <v>1.3239772275916857</v>
+      </c>
+      <c r="W345" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="346" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C346">
         <v>419</v>
       </c>
@@ -39498,8 +39782,21 @@
         <f t="shared" si="46"/>
         <v>2.0950000000000003E-6</v>
       </c>
-    </row>
-    <row r="347" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="N346" t="s">
+        <v>162</v>
+      </c>
+      <c r="S346">
+        <v>1.7048000000000001</v>
+      </c>
+      <c r="T346">
+        <v>1.7181</v>
+      </c>
+      <c r="U346">
+        <f>T346-S346</f>
+        <v>1.3299999999999867E-2</v>
+      </c>
+    </row>
+    <row r="347" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C347">
         <v>420</v>
       </c>
@@ -39527,8 +39824,20 @@
         <f t="shared" si="46"/>
         <v>2.0999999999999998E-6</v>
       </c>
-    </row>
-    <row r="348" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="U347">
+        <f>U346/U345</f>
+        <v>1.7608897126969243E-2</v>
+      </c>
+      <c r="V347">
+        <f>U347*4</f>
+        <v>7.043558850787697E-2</v>
+      </c>
+      <c r="W347">
+        <f>1/U347</f>
+        <v>56.789473684211089</v>
+      </c>
+    </row>
+    <row r="348" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C348">
         <v>421</v>
       </c>
@@ -39557,7 +39866,7 @@
         <v>2.1050000000000002E-6</v>
       </c>
     </row>
-    <row r="349" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C349">
         <v>422</v>
       </c>
@@ -39585,8 +39894,40 @@
         <f t="shared" si="46"/>
         <v>2.1100000000000001E-6</v>
       </c>
-    </row>
-    <row r="350" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="N349" t="s">
+        <v>167</v>
+      </c>
+      <c r="O349" t="s">
+        <v>160</v>
+      </c>
+      <c r="P349" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q349" t="s">
+        <v>117</v>
+      </c>
+      <c r="R349" t="s">
+        <v>163</v>
+      </c>
+      <c r="S349">
+        <v>1.5640000000000001</v>
+      </c>
+      <c r="T349">
+        <v>2.3490000000000002</v>
+      </c>
+      <c r="U349">
+        <f>T349-S349</f>
+        <v>0.78500000000000014</v>
+      </c>
+      <c r="V349">
+        <f>1/U349</f>
+        <v>1.2738853503184711</v>
+      </c>
+      <c r="W349" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="350" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C350">
         <v>423</v>
       </c>
@@ -39614,8 +39955,21 @@
         <f t="shared" si="46"/>
         <v>2.1150000000000001E-6</v>
       </c>
-    </row>
-    <row r="351" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="N350" t="s">
+        <v>162</v>
+      </c>
+      <c r="S350">
+        <v>1.5642799999999999</v>
+      </c>
+      <c r="T350">
+        <v>1.5778000000000001</v>
+      </c>
+      <c r="U350">
+        <f>T350-S350</f>
+        <v>1.3520000000000199E-2</v>
+      </c>
+    </row>
+    <row r="351" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C351">
         <v>424</v>
       </c>
@@ -39643,8 +39997,20 @@
         <f t="shared" si="46"/>
         <v>2.12E-6</v>
       </c>
-    </row>
-    <row r="352" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="U351">
+        <f>U350/U349</f>
+        <v>1.7222929936305982E-2</v>
+      </c>
+      <c r="V351">
+        <f>U351*4</f>
+        <v>6.8891719745223928E-2</v>
+      </c>
+      <c r="W351">
+        <f>1/U351</f>
+        <v>58.06213017751395</v>
+      </c>
+    </row>
+    <row r="352" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C352">
         <v>425</v>
       </c>
@@ -39673,7 +40039,7 @@
         <v>2.125E-6</v>
       </c>
     </row>
-    <row r="353" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C353">
         <v>426</v>
       </c>
@@ -39701,8 +40067,40 @@
         <f t="shared" si="46"/>
         <v>2.1299999999999999E-6</v>
       </c>
-    </row>
-    <row r="354" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="N353" t="s">
+        <v>167</v>
+      </c>
+      <c r="O353" t="s">
+        <v>160</v>
+      </c>
+      <c r="P353" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q353" t="s">
+        <v>117</v>
+      </c>
+      <c r="R353" t="s">
+        <v>163</v>
+      </c>
+      <c r="S353">
+        <v>1.5640000000000001</v>
+      </c>
+      <c r="T353">
+        <v>2.3490000000000002</v>
+      </c>
+      <c r="U353">
+        <f>T353-S353</f>
+        <v>0.78500000000000014</v>
+      </c>
+      <c r="V353">
+        <f>1/U353</f>
+        <v>1.2738853503184711</v>
+      </c>
+      <c r="W353" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="354" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C354">
         <v>427</v>
       </c>
@@ -39730,8 +40128,21 @@
         <f t="shared" si="46"/>
         <v>2.1349999999999999E-6</v>
       </c>
-    </row>
-    <row r="355" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="N354" t="s">
+        <v>162</v>
+      </c>
+      <c r="S354">
+        <v>2.3066900000000001</v>
+      </c>
+      <c r="T354">
+        <v>2.3200699999999999</v>
+      </c>
+      <c r="U354">
+        <f>T354-S354</f>
+        <v>1.3379999999999725E-2</v>
+      </c>
+    </row>
+    <row r="355" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C355">
         <v>428</v>
       </c>
@@ -39759,8 +40170,20 @@
         <f t="shared" si="46"/>
         <v>2.1400000000000003E-6</v>
       </c>
-    </row>
-    <row r="356" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="U355">
+        <f>U354/U353</f>
+        <v>1.7044585987260795E-2</v>
+      </c>
+      <c r="V355">
+        <f>U355*4</f>
+        <v>6.817834394904318E-2</v>
+      </c>
+      <c r="W355">
+        <f>1/U355</f>
+        <v>58.669656203289698</v>
+      </c>
+    </row>
+    <row r="356" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C356">
         <v>429</v>
       </c>
@@ -39789,7 +40212,7 @@
         <v>2.1449999999999998E-6</v>
       </c>
     </row>
-    <row r="357" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C357">
         <v>430</v>
       </c>
@@ -39817,8 +40240,40 @@
         <f t="shared" si="46"/>
         <v>2.1500000000000002E-6</v>
       </c>
-    </row>
-    <row r="358" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="N357" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="O357" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="P357" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q357" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="R357" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="S357" s="19">
+        <v>1.766</v>
+      </c>
+      <c r="T357" s="19">
+        <v>2.5266000000000002</v>
+      </c>
+      <c r="U357" s="19">
+        <f>T357-S357</f>
+        <v>0.76060000000000016</v>
+      </c>
+      <c r="V357" s="19">
+        <f>1/U357</f>
+        <v>1.3147515119642386</v>
+      </c>
+      <c r="W357" s="20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="358" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C358">
         <v>431</v>
       </c>
@@ -39846,8 +40301,21 @@
         <f t="shared" si="46"/>
         <v>2.1550000000000001E-6</v>
       </c>
-    </row>
-    <row r="359" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="N358" t="s">
+        <v>162</v>
+      </c>
+      <c r="S358">
+        <v>1.786</v>
+      </c>
+      <c r="T358">
+        <v>1.8069999999999999</v>
+      </c>
+      <c r="U358">
+        <f>T358-S358</f>
+        <v>2.0999999999999908E-2</v>
+      </c>
+    </row>
+    <row r="359" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C359">
         <v>432</v>
       </c>
@@ -39875,8 +40343,26 @@
         <f t="shared" si="46"/>
         <v>2.1600000000000001E-6</v>
       </c>
-    </row>
-    <row r="360" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="S359">
+        <v>1.4014</v>
+      </c>
+      <c r="T359">
+        <v>1.4227000000000001</v>
+      </c>
+      <c r="U359">
+        <f>U358/U357</f>
+        <v>2.7609781751248886E-2</v>
+      </c>
+      <c r="V359">
+        <f>U359*4</f>
+        <v>0.11043912700499554</v>
+      </c>
+      <c r="W359">
+        <f>1/U359</f>
+        <v>36.219047619047785</v>
+      </c>
+    </row>
+    <row r="360" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C360">
         <v>433</v>
       </c>
@@ -39904,8 +40390,12 @@
         <f t="shared" si="46"/>
         <v>2.165E-6</v>
       </c>
-    </row>
-    <row r="361" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="U360">
+        <f>T359-S359</f>
+        <v>2.1300000000000097E-2</v>
+      </c>
+    </row>
+    <row r="361" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C361">
         <v>434</v>
       </c>
@@ -39934,7 +40424,7 @@
         <v>2.17E-6</v>
       </c>
     </row>
-    <row r="362" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C362">
         <v>435</v>
       </c>
@@ -39962,8 +40452,40 @@
         <f t="shared" si="46"/>
         <v>2.1749999999999999E-6</v>
       </c>
-    </row>
-    <row r="363" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="N362" t="s">
+        <v>167</v>
+      </c>
+      <c r="O362" t="s">
+        <v>170</v>
+      </c>
+      <c r="P362" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q362" t="s">
+        <v>117</v>
+      </c>
+      <c r="R362" t="s">
+        <v>166</v>
+      </c>
+      <c r="S362">
+        <v>1.5</v>
+      </c>
+      <c r="T362">
+        <v>2.4849999999999999</v>
+      </c>
+      <c r="U362">
+        <f>T362-S362</f>
+        <v>0.98499999999999988</v>
+      </c>
+      <c r="V362">
+        <f>1/U362</f>
+        <v>1.0152284263959392</v>
+      </c>
+      <c r="W362" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="363" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C363">
         <v>436</v>
       </c>
@@ -39991,8 +40513,21 @@
         <f t="shared" si="46"/>
         <v>2.1799999999999999E-6</v>
       </c>
-    </row>
-    <row r="364" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="N363" t="s">
+        <v>162</v>
+      </c>
+      <c r="S363">
+        <v>1.5168999999999999</v>
+      </c>
+      <c r="T363">
+        <v>1.5347</v>
+      </c>
+      <c r="U363">
+        <f>T363-S363</f>
+        <v>1.7800000000000038E-2</v>
+      </c>
+    </row>
+    <row r="364" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C364">
         <v>437</v>
       </c>
@@ -40020,8 +40555,20 @@
         <f t="shared" si="46"/>
         <v>2.1849999999999998E-6</v>
       </c>
-    </row>
-    <row r="365" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="U364">
+        <f>U363/U362</f>
+        <v>1.8071065989847757E-2</v>
+      </c>
+      <c r="V364">
+        <f>U364*4</f>
+        <v>7.2284263959391026E-2</v>
+      </c>
+      <c r="W364">
+        <f>1/U364</f>
+        <v>55.337078651685268</v>
+      </c>
+    </row>
+    <row r="365" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C365">
         <v>438</v>
       </c>
@@ -40050,7 +40597,7 @@
         <v>2.1900000000000002E-6</v>
       </c>
     </row>
-    <row r="366" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C366">
         <v>439</v>
       </c>
@@ -40078,8 +40625,40 @@
         <f t="shared" si="46"/>
         <v>2.1950000000000002E-6</v>
       </c>
-    </row>
-    <row r="367" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="N366" t="s">
+        <v>167</v>
+      </c>
+      <c r="O366" t="s">
+        <v>171</v>
+      </c>
+      <c r="P366" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q366" t="s">
+        <v>117</v>
+      </c>
+      <c r="R366" t="s">
+        <v>166</v>
+      </c>
+      <c r="S366">
+        <v>1.4570000000000001</v>
+      </c>
+      <c r="T366">
+        <v>2.3372999999999999</v>
+      </c>
+      <c r="U366">
+        <f>T366-S366</f>
+        <v>0.88029999999999986</v>
+      </c>
+      <c r="V366">
+        <f>1/U366</f>
+        <v>1.135976371691469</v>
+      </c>
+      <c r="W366" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="367" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C367">
         <v>440</v>
       </c>
@@ -40107,8 +40686,21 @@
         <f t="shared" si="46"/>
         <v>2.2000000000000001E-6</v>
       </c>
-    </row>
-    <row r="368" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="N367" t="s">
+        <v>162</v>
+      </c>
+      <c r="S367">
+        <v>1.4886999999999999</v>
+      </c>
+      <c r="T367">
+        <v>1.5059</v>
+      </c>
+      <c r="U367">
+        <f>T367-S367</f>
+        <v>1.7200000000000104E-2</v>
+      </c>
+    </row>
+    <row r="368" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C368">
         <v>441</v>
       </c>
@@ -40136,8 +40728,20 @@
         <f t="shared" si="46"/>
         <v>2.2050000000000001E-6</v>
       </c>
-    </row>
-    <row r="369" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="U368">
+        <f>U367/U366</f>
+        <v>1.9538793593093386E-2</v>
+      </c>
+      <c r="V368">
+        <f>U368*4</f>
+        <v>7.8155174372373543E-2</v>
+      </c>
+      <c r="W368">
+        <f>1/U368</f>
+        <v>51.180232558139217</v>
+      </c>
+    </row>
+    <row r="369" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C369">
         <v>442</v>
       </c>
@@ -40166,7 +40770,7 @@
         <v>2.21E-6</v>
       </c>
     </row>
-    <row r="370" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C370">
         <v>443</v>
       </c>
@@ -40194,8 +40798,40 @@
         <f t="shared" si="46"/>
         <v>2.215E-6</v>
       </c>
-    </row>
-    <row r="371" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="N370" t="s">
+        <v>167</v>
+      </c>
+      <c r="O370" t="s">
+        <v>172</v>
+      </c>
+      <c r="P370" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q370" t="s">
+        <v>117</v>
+      </c>
+      <c r="R370" t="s">
+        <v>166</v>
+      </c>
+      <c r="S370">
+        <v>1.0580000000000001</v>
+      </c>
+      <c r="T370">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="U370">
+        <f>T370-S370</f>
+        <v>0.83399999999999985</v>
+      </c>
+      <c r="V370">
+        <f>1/U370</f>
+        <v>1.1990407673860914</v>
+      </c>
+      <c r="W370" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="371" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C371">
         <v>444</v>
       </c>
@@ -40223,8 +40859,21 @@
         <f t="shared" si="46"/>
         <v>2.2199999999999999E-6</v>
       </c>
-    </row>
-    <row r="372" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="N371" t="s">
+        <v>162</v>
+      </c>
+      <c r="S371">
+        <v>1.1346000000000001</v>
+      </c>
+      <c r="T371">
+        <v>1.1498999999999999</v>
+      </c>
+      <c r="U371">
+        <f>T371-S371</f>
+        <v>1.5299999999999869E-2</v>
+      </c>
+    </row>
+    <row r="372" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C372">
         <v>445</v>
       </c>
@@ -40252,8 +40901,20 @@
         <f t="shared" si="46"/>
         <v>2.2250000000000003E-6</v>
       </c>
-    </row>
-    <row r="373" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="U372">
+        <f>U371/U370</f>
+        <v>1.8345323741007041E-2</v>
+      </c>
+      <c r="V372">
+        <f>U372*4</f>
+        <v>7.3381294964028163E-2</v>
+      </c>
+      <c r="W372">
+        <f>1/U372</f>
+        <v>54.50980392156908</v>
+      </c>
+    </row>
+    <row r="373" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C373">
         <v>446</v>
       </c>
@@ -40282,7 +40943,7 @@
         <v>2.2299999999999998E-6</v>
       </c>
     </row>
-    <row r="374" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C374">
         <v>447</v>
       </c>
@@ -40310,8 +40971,40 @@
         <f t="shared" si="46"/>
         <v>2.2349999999999998E-6</v>
       </c>
-    </row>
-    <row r="375" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="N374" t="s">
+        <v>167</v>
+      </c>
+      <c r="O374" t="s">
+        <v>173</v>
+      </c>
+      <c r="P374" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q374" t="s">
+        <v>117</v>
+      </c>
+      <c r="R374" t="s">
+        <v>166</v>
+      </c>
+      <c r="S374">
+        <v>1.3649</v>
+      </c>
+      <c r="T374">
+        <v>1.9846999999999999</v>
+      </c>
+      <c r="U374">
+        <f>T374-S374</f>
+        <v>0.61979999999999991</v>
+      </c>
+      <c r="V374">
+        <f>1/U374</f>
+        <v>1.613423685059697</v>
+      </c>
+      <c r="W374" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="375" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C375">
         <v>448</v>
       </c>
@@ -40339,8 +41032,21 @@
         <f t="shared" si="46"/>
         <v>2.2400000000000002E-6</v>
       </c>
-    </row>
-    <row r="376" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="N375" t="s">
+        <v>162</v>
+      </c>
+      <c r="S375">
+        <v>1.3920999999999999</v>
+      </c>
+      <c r="T375">
+        <v>1.4058999999999999</v>
+      </c>
+      <c r="U375">
+        <f>T375-S375</f>
+        <v>1.3800000000000034E-2</v>
+      </c>
+    </row>
+    <row r="376" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C376">
         <v>449</v>
       </c>
@@ -40368,8 +41074,20 @@
         <f t="shared" si="46"/>
         <v>2.2450000000000001E-6</v>
       </c>
-    </row>
-    <row r="377" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="U376">
+        <f>U375/U374</f>
+        <v>2.2265246853823872E-2</v>
+      </c>
+      <c r="V376">
+        <f>U376*4</f>
+        <v>8.9060987415295487E-2</v>
+      </c>
+      <c r="W376">
+        <f>1/U376</f>
+        <v>44.913043478260754</v>
+      </c>
+    </row>
+    <row r="377" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C377">
         <v>450</v>
       </c>
@@ -40398,7 +41116,7 @@
         <v>2.2500000000000001E-6</v>
       </c>
     </row>
-    <row r="378" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C378">
         <v>451</v>
       </c>
@@ -40427,7 +41145,7 @@
         <v>2.255E-6</v>
       </c>
     </row>
-    <row r="379" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C379">
         <v>452</v>
       </c>
@@ -40456,7 +41174,7 @@
         <v>2.26E-6</v>
       </c>
     </row>
-    <row r="380" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C380">
         <v>453</v>
       </c>
@@ -40485,7 +41203,7 @@
         <v>2.2649999999999999E-6</v>
       </c>
     </row>
-    <row r="381" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C381">
         <v>454</v>
       </c>
@@ -40514,7 +41232,7 @@
         <v>2.2699999999999999E-6</v>
       </c>
     </row>
-    <row r="382" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C382">
         <v>455</v>
       </c>
@@ -40543,7 +41261,7 @@
         <v>2.2750000000000002E-6</v>
       </c>
     </row>
-    <row r="383" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C383">
         <v>456</v>
       </c>
@@ -40572,7 +41290,7 @@
         <v>2.2800000000000002E-6</v>
       </c>
     </row>
-    <row r="384" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C384">
         <v>457</v>
       </c>
@@ -51132,4 +51850,24 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>1.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/teensy4theremin/kicad/teensy4_pins_layout.xlsx
+++ b/teensy4theremin/kicad/teensy4_pins_layout.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18765" windowHeight="8055" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18765" windowHeight="8055" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="216">
   <si>
     <t>GND</t>
   </si>
@@ -642,15 +642,52 @@
   <si>
     <t>xxx</t>
   </si>
+  <si>
+    <t>F, mHz</t>
+  </si>
+  <si>
+    <t>L, H</t>
+  </si>
+  <si>
+    <t>C ant, pF</t>
+  </si>
+  <si>
+    <t>F_max</t>
+  </si>
+  <si>
+    <t>F_ref</t>
+  </si>
+  <si>
+    <t>F_out</t>
+  </si>
+  <si>
+    <t>T_fbus</t>
+  </si>
+  <si>
+    <t>F_bus</t>
+  </si>
+  <si>
+    <t>T_diff</t>
+  </si>
+  <si>
+    <t>C_ant + C_hand, pF</t>
+  </si>
+  <si>
+    <t>T_diff*2</t>
+  </si>
+  <si>
+    <t>T_diff*8(1ms)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
     <numFmt numFmtId="166" formatCode="0.000000000"/>
+    <numFmt numFmtId="176" formatCode="0.000000000000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -747,7 +784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -783,6 +820,7 @@
     <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -791,6 +829,8 @@
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -22524,10 +22564,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:W111"/>
+  <dimension ref="C2:AD111"/>
   <sheetViews>
-    <sheetView topLeftCell="B70" workbookViewId="0">
-      <selection activeCell="U93" sqref="U93"/>
+    <sheetView tabSelected="1" topLeftCell="I79" workbookViewId="0">
+      <selection activeCell="AE100" sqref="AE100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22543,14 +22583,17 @@
     <col min="18" max="18" width="14" customWidth="1"/>
     <col min="19" max="19" width="13.5703125" customWidth="1"/>
     <col min="23" max="23" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22" customWidth="1"/>
+    <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:30" x14ac:dyDescent="0.25">
       <c r="Q2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:30" x14ac:dyDescent="0.25">
       <c r="J3" t="s">
         <v>70</v>
       </c>
@@ -22576,12 +22619,40 @@
         <v>3.499975436111106</v>
       </c>
     </row>
-    <row r="5" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="X4" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="3:30" x14ac:dyDescent="0.25">
       <c r="Q5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="6" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="X5" s="19">
+        <v>9.4</v>
+      </c>
+      <c r="Y5">
+        <f>MAX(Y11:Y111)</f>
+        <v>947753.63606616447</v>
+      </c>
+      <c r="Z5">
+        <f>Y5+4000</f>
+        <v>951753.63606616447</v>
+      </c>
+      <c r="AA5">
+        <v>240000000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>600000</v>
       </c>
@@ -22609,7 +22680,12 @@
         <v>3.5000659676652313</v>
       </c>
     </row>
-    <row r="8" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="X7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="3:30" x14ac:dyDescent="0.25">
       <c r="R8" t="s">
         <v>74</v>
       </c>
@@ -22625,8 +22701,12 @@
       <c r="V8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="10" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="X8" s="19">
+        <f>0.003</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:30" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
         <v>69</v>
       </c>
@@ -22660,8 +22740,29 @@
       <c r="W10" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="11" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="X10" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="3:30" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>1</v>
       </c>
@@ -22686,7 +22787,7 @@
       <c r="R11">
         <v>1</v>
       </c>
-      <c r="S11" s="11">
+      <c r="S11" s="24">
         <v>1.5</v>
       </c>
       <c r="T11" s="9">
@@ -22695,8 +22796,24 @@
       <c r="U11" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="X11" s="25">
+        <f>($X$5+S11)</f>
+        <v>10.9</v>
+      </c>
+      <c r="Y11">
+        <f>1/(2*3.1415926*SQRT($X$8*X11/1000000000000))</f>
+        <v>880128.86140827264</v>
+      </c>
+      <c r="Z11">
+        <f>$Z$5-Y11</f>
+        <v>71624.77465789183</v>
+      </c>
+      <c r="AA11">
+        <f>$AA$5/Z11</f>
+        <v>3350.7958823791719</v>
+      </c>
+    </row>
+    <row r="12" spans="3:30" x14ac:dyDescent="0.25">
       <c r="D12">
         <f>D11+10</f>
         <v>11</v>
@@ -22735,14 +22852,42 @@
       <c r="U12" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="X12" s="25">
+        <f t="shared" ref="X12:X75" si="1">($X$5+S12)</f>
+        <v>10.723379657729517</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" ref="Y12:Y75" si="2">1/(2*3.1415926*SQRT($X$8*X12/1000000000000))</f>
+        <v>887347.37836332514</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" ref="Z12:Z75" si="3">$Z$5-Y12</f>
+        <v>64406.257702839328</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" ref="AA12:AA75" si="4">$AA$5/Z12</f>
+        <v>3726.3459881076074</v>
+      </c>
+      <c r="AB12">
+        <f>AA12-AA11</f>
+        <v>375.55010572843548</v>
+      </c>
+      <c r="AC12">
+        <f>AB12*2</f>
+        <v>751.10021145687097</v>
+      </c>
+      <c r="AD12">
+        <f>AC12*4</f>
+        <v>3004.4008458274839</v>
+      </c>
+    </row>
+    <row r="13" spans="3:30" x14ac:dyDescent="0.25">
       <c r="D13">
-        <f t="shared" ref="D13:D15" si="1">D12+10</f>
+        <f t="shared" ref="D13:D15" si="5">D12+10</f>
         <v>21</v>
       </c>
       <c r="E13" s="10">
-        <f t="shared" ref="E13:E15" si="2">E12/3.5</f>
+        <f t="shared" ref="E13:E15" si="6">E12/3.5</f>
         <v>0.12244897959183673</v>
       </c>
       <c r="F13">
@@ -22763,14 +22908,14 @@
         <v>5</v>
       </c>
       <c r="P13" s="11">
-        <f t="shared" ref="P13:P55" si="3">P12/1.28474</f>
+        <f t="shared" ref="P13:P55" si="7">P12/1.28474</f>
         <v>0.90878419849967496</v>
       </c>
       <c r="R13">
         <v>3</v>
       </c>
       <c r="S13" s="11">
-        <f t="shared" ref="S13:S76" si="4">S12/$S$8</f>
+        <f t="shared" ref="S13:S76" si="8">S12/$S$8</f>
         <v>1.1675558123281933</v>
       </c>
       <c r="T13" s="9">
@@ -22779,14 +22924,42 @@
       <c r="U13" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="X13" s="25">
+        <f t="shared" si="1"/>
+        <v>10.567555812328195</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="2"/>
+        <v>893865.62593137717</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="3"/>
+        <v>57888.010134787299</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="4"/>
+        <v>4145.9362559048141</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" ref="AB13:AB76" si="9">AA13-AA12</f>
+        <v>419.59026779720671</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" ref="AC13:AC76" si="10">AB13*2</f>
+        <v>839.18053559441341</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" ref="AD13:AD76" si="11">AC13*4</f>
+        <v>3356.7221423776537</v>
+      </c>
+    </row>
+    <row r="14" spans="3:30" x14ac:dyDescent="0.25">
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="E14" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.4985422740524783E-2</v>
       </c>
       <c r="H14">
@@ -22803,14 +22976,14 @@
         <v>7</v>
       </c>
       <c r="P14" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.70736818227787335</v>
       </c>
       <c r="R14">
         <v>4</v>
       </c>
       <c r="S14" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0300797408659941</v>
       </c>
       <c r="T14" s="9">
@@ -22819,14 +22992,42 @@
       <c r="U14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="X14" s="25">
+        <f t="shared" si="1"/>
+        <v>10.430079740865995</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="2"/>
+        <v>899737.24223697314</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="3"/>
+        <v>52016.393829191336</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="4"/>
+        <v>4613.9300003783273</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="9"/>
+        <v>467.99374447351329</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="10"/>
+        <v>935.98748894702658</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="11"/>
+        <v>3743.9499557881063</v>
+      </c>
+    </row>
+    <row r="15" spans="3:30" x14ac:dyDescent="0.25">
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="E15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.9958350687213669E-3</v>
       </c>
       <c r="H15">
@@ -22843,14 +23044,14 @@
         <v>9</v>
       </c>
       <c r="P15" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.55059247962846436</v>
       </c>
       <c r="R15">
         <v>5</v>
       </c>
       <c r="S15" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.90879104993423154</v>
       </c>
       <c r="T15" s="9">
@@ -22859,8 +23060,36 @@
       <c r="U15" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="X15" s="25">
+        <f t="shared" si="1"/>
+        <v>10.308791049934232</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="2"/>
+        <v>905014.72038404015</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="3"/>
+        <v>46738.915682124323</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="4"/>
+        <v>5134.907314330143</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="9"/>
+        <v>520.97731395181563</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="10"/>
+        <v>1041.9546279036313</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="11"/>
+        <v>4167.8185116145251</v>
+      </c>
+    </row>
+    <row r="16" spans="3:30" x14ac:dyDescent="0.25">
       <c r="D16">
         <f>D15+10</f>
         <v>51</v>
@@ -22883,14 +23112,14 @@
         <v>11</v>
       </c>
       <c r="P16" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.42856335105037935</v>
       </c>
       <c r="R16">
         <v>6</v>
       </c>
-      <c r="S16" s="11">
-        <f t="shared" si="4"/>
+      <c r="S16" s="24">
+        <f t="shared" si="8"/>
         <v>0.80178372573974033</v>
       </c>
       <c r="T16" s="9">
@@ -22899,14 +23128,42 @@
       <c r="U16" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X16" s="25">
+        <f t="shared" si="1"/>
+        <v>10.201783725739741</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="2"/>
+        <v>909748.72476679529</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="3"/>
+        <v>42004.911299369182</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="4"/>
+        <v>5713.6175884176728</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="9"/>
+        <v>578.7102740875298</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="10"/>
+        <v>1157.4205481750596</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="11"/>
+        <v>4629.6821927002384</v>
+      </c>
+    </row>
+    <row r="17" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D17">
-        <f t="shared" ref="D17" si="5">D16+10</f>
+        <f t="shared" ref="D17" si="12">D16+10</f>
         <v>61</v>
       </c>
       <c r="E17" s="10">
-        <f t="shared" ref="E17" si="6">E16/3.5</f>
+        <f t="shared" ref="E17" si="13">E16/3.5</f>
         <v>8.1598653622215239E-4</v>
       </c>
       <c r="H17">
@@ -22923,14 +23180,14 @@
         <v>13</v>
       </c>
       <c r="P17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.33357983019940168</v>
       </c>
       <c r="R17">
         <v>7</v>
       </c>
       <c r="S17" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.70737618169503558</v>
       </c>
       <c r="T17" s="9">
@@ -22939,8 +23196,36 @@
       <c r="U17" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X17" s="25">
+        <f t="shared" si="1"/>
+        <v>10.107376181695036</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="2"/>
+        <v>913987.58538288134</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="3"/>
+        <v>37766.050683283131</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="4"/>
+        <v>6354.9138884737622</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="9"/>
+        <v>641.29630005608942</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="10"/>
+        <v>1282.5926001121788</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="11"/>
+        <v>5130.3704004487154</v>
+      </c>
+    </row>
+    <row r="18" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D18">
         <f>D17+10</f>
         <v>71</v>
@@ -22963,14 +23248,14 @@
         <v>15</v>
       </c>
       <c r="P18" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.25964773432710253</v>
       </c>
       <c r="R18">
         <v>8</v>
       </c>
       <c r="S18" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.62408483281172522</v>
       </c>
       <c r="T18" s="9">
@@ -22979,8 +23264,36 @@
       <c r="U18" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X18" s="25">
+        <f t="shared" si="1"/>
+        <v>10.024084832811726</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="2"/>
+        <v>917776.94750604604</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="3"/>
+        <v>33976.688560118433</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="4"/>
+        <v>7063.6665952699723</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="9"/>
+        <v>708.75270679621008</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="10"/>
+        <v>1417.5054135924202</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="11"/>
+        <v>5670.0216543696806</v>
+      </c>
+    </row>
+    <row r="19" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D19">
         <f>D18+10</f>
         <v>81</v>
@@ -23003,14 +23316,14 @@
         <v>17</v>
       </c>
       <c r="P19" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.20210138574894729</v>
       </c>
       <c r="R19">
         <v>9</v>
       </c>
       <c r="S19" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.55060078162704196</v>
       </c>
       <c r="T19" s="9">
@@ -23019,8 +23332,36 @@
       <c r="U19" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X19" s="25">
+        <f t="shared" si="1"/>
+        <v>9.9506007816270419</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="2"/>
+        <v>921159.55296373239</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="3"/>
+        <v>30594.08310243208</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="4"/>
+        <v>7844.6541181330967</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="9"/>
+        <v>780.98752286312447</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="10"/>
+        <v>1561.9750457262489</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="11"/>
+        <v>6247.9001829049957</v>
+      </c>
+    </row>
+    <row r="20" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>150000</v>
       </c>
@@ -23038,14 +23379,14 @@
         <v>19</v>
       </c>
       <c r="P20" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.15730917208847495</v>
       </c>
       <c r="R20">
         <v>10</v>
       </c>
       <c r="S20" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.48576924929013238</v>
       </c>
       <c r="T20" s="9">
@@ -23054,8 +23395,36 @@
       <c r="U20" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X20" s="25">
+        <f t="shared" si="1"/>
+        <v>9.8857692492901332</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="2"/>
+        <v>924175.12976673269</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="3"/>
+        <v>27578.506299431785</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="4"/>
+        <v>8702.429253934788</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="9"/>
+        <v>857.77513580169125</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="10"/>
+        <v>1715.5502716033825</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="11"/>
+        <v>6862.20108641353</v>
+      </c>
+    </row>
+    <row r="21" spans="4:30" x14ac:dyDescent="0.25">
       <c r="H21">
         <v>101</v>
       </c>
@@ -23070,14 +23439,14 @@
         <v>21</v>
       </c>
       <c r="P21" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.12244436390902046</v>
       </c>
       <c r="R21">
         <v>11</v>
       </c>
-      <c r="S21" s="11">
-        <f t="shared" si="4"/>
+      <c r="S21" s="24">
+        <f t="shared" si="8"/>
         <v>0.4285714285740661</v>
       </c>
       <c r="T21" s="9">
@@ -23086,8 +23455,36 @@
       <c r="U21" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X21" s="25">
+        <f t="shared" si="1"/>
+        <v>9.8285714285740671</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="2"/>
+        <v>926860.36842377065</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="3"/>
+        <v>24893.267642393825</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="4"/>
+        <v>9641.160953545299</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="9"/>
+        <v>938.73169961051099</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="10"/>
+        <v>1877.463399221022</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="11"/>
+        <v>7509.8535968840879</v>
+      </c>
+    </row>
+    <row r="22" spans="4:30" x14ac:dyDescent="0.25">
       <c r="L22" s="9">
         <v>28.5</v>
       </c>
@@ -23095,14 +23492,14 @@
         <v>23</v>
       </c>
       <c r="P22" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.5306726582048085E-2</v>
       </c>
       <c r="R22">
         <v>12</v>
       </c>
       <c r="S22" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.37810847363933142</v>
       </c>
       <c r="T22" s="9">
@@ -23111,8 +23508,36 @@
       <c r="U22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X22" s="25">
+        <f t="shared" si="1"/>
+        <v>9.7781084736393318</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="2"/>
+        <v>929248.96550534072</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="3"/>
+        <v>22504.670560823753</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="4"/>
+        <v>10664.45293439635</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="9"/>
+        <v>1023.2919808510505</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="10"/>
+        <v>2046.5839617021011</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="11"/>
+        <v>8186.3358468084043</v>
+      </c>
+    </row>
+    <row r="23" spans="4:30" x14ac:dyDescent="0.25">
       <c r="L23" s="9">
         <v>31</v>
       </c>
@@ -23120,14 +23545,14 @@
         <v>25</v>
       </c>
       <c r="P23" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4183668743907777E-2</v>
       </c>
       <c r="R23">
         <v>13</v>
       </c>
       <c r="S23" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.33358737495296531</v>
       </c>
       <c r="T23" s="9">
@@ -23136,8 +23561,36 @@
       <c r="U23" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X23" s="25">
+        <f t="shared" si="1"/>
+        <v>9.7335873749529664</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="2"/>
+        <v>931371.7175591141</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="3"/>
+        <v>20381.918507050374</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="4"/>
+        <v>11775.142752973958</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="9"/>
+        <v>1110.6898185776081</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="10"/>
+        <v>2221.3796371552162</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="11"/>
+        <v>8885.5185486208647</v>
+      </c>
+    </row>
+    <row r="24" spans="4:30" x14ac:dyDescent="0.25">
       <c r="L24" s="9">
         <v>33.5</v>
       </c>
@@ -23145,14 +23598,14 @@
         <v>27</v>
       </c>
       <c r="P24" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5.7742164752329482E-2</v>
       </c>
       <c r="R24">
         <v>14</v>
       </c>
       <c r="S24" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.29430849739209519</v>
       </c>
       <c r="T24" s="9">
@@ -23161,8 +23614,36 @@
       <c r="U24" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X24" s="25">
+        <f t="shared" si="1"/>
+        <v>9.694308497392095</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="2"/>
+        <v>933256.65107723046</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="3"/>
+        <v>18496.984988934011</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="4"/>
+        <v>12975.087569329929</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="9"/>
+        <v>1199.9448163559719</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="10"/>
+        <v>2399.8896327119437</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="11"/>
+        <v>9599.5585308477748</v>
+      </c>
+    </row>
+    <row r="25" spans="4:30" x14ac:dyDescent="0.25">
       <c r="L25" s="9">
         <v>36</v>
       </c>
@@ -23170,14 +23651,14 @@
         <v>29</v>
       </c>
       <c r="P25" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.4944630627465079E-2</v>
       </c>
       <c r="R25">
         <v>15</v>
       </c>
       <c r="S25" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.25965458569709265</v>
       </c>
       <c r="T25" s="9">
@@ -23186,8 +23667,36 @@
       <c r="U25" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X25" s="25">
+        <f t="shared" si="1"/>
+        <v>9.6596545856970923</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="2"/>
+        <v>934929.17670718161</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="3"/>
+        <v>16824.459358982858</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="4"/>
+        <v>14264.945748278087</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="9"/>
+        <v>1289.8581789481577</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="10"/>
+        <v>2579.7163578963155</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="11"/>
+        <v>10318.865431585262</v>
+      </c>
+    </row>
+    <row r="26" spans="4:30" x14ac:dyDescent="0.25">
       <c r="L26" s="9">
         <v>38.5</v>
       </c>
@@ -23195,14 +23704,14 @@
         <v>31</v>
       </c>
       <c r="P26" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.4983444609387952E-2</v>
       </c>
       <c r="R26">
         <v>16</v>
       </c>
-      <c r="S26" s="11">
-        <f t="shared" si="4"/>
+      <c r="S26" s="24">
+        <f t="shared" si="8"/>
         <v>0.22908106449847843</v>
       </c>
       <c r="T26" s="9">
@@ -23211,8 +23720,36 @@
       <c r="U26" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X26" s="25">
+        <f t="shared" si="1"/>
+        <v>9.6290810644984788</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="2"/>
+        <v>936412.25818028441</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="3"/>
+        <v>15341.377885880065</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="4"/>
+        <v>15643.966388500983</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="9"/>
+        <v>1379.020640222896</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="10"/>
+        <v>2758.0412804457919</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="11"/>
+        <v>11032.165121783168</v>
+      </c>
+    </row>
+    <row r="27" spans="4:30" x14ac:dyDescent="0.25">
       <c r="L27" s="9">
         <v>41</v>
       </c>
@@ -23220,14 +23757,14 @@
         <v>33</v>
       </c>
       <c r="P27" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.7229980081096526E-2</v>
       </c>
       <c r="R27">
         <v>17</v>
       </c>
       <c r="S27" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.20210748048553964</v>
       </c>
       <c r="T27" s="9">
@@ -23236,8 +23773,36 @@
       <c r="U27" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X27" s="25">
+        <f t="shared" si="1"/>
+        <v>9.6021074804855395</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="2"/>
+        <v>937726.58845102775</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="3"/>
+        <v>14027.047615136718</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="4"/>
+        <v>17109.801476756504</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="9"/>
+        <v>1465.8350882555205</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="10"/>
+        <v>2931.6701765110411</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="11"/>
+        <v>11726.680706044164</v>
+      </c>
+    </row>
+    <row r="28" spans="4:30" x14ac:dyDescent="0.25">
       <c r="L28" s="9">
         <v>43.5</v>
       </c>
@@ -23245,14 +23810,14 @@
         <v>35</v>
       </c>
       <c r="P28" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.11949344467336E-2</v>
       </c>
       <c r="R28">
         <v>18</v>
       </c>
       <c r="S28" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.17830995223301879</v>
       </c>
       <c r="T28" s="9">
@@ -23261,8 +23826,36 @@
       <c r="U28" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X28" s="25">
+        <f t="shared" si="1"/>
+        <v>9.5783099522330186</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="2"/>
+        <v>938890.76727783412</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="3"/>
+        <v>12862.86878833035</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="4"/>
+        <v>18658.357163507451</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="9"/>
+        <v>1548.5556867509476</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="10"/>
+        <v>3097.1113735018953</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="11"/>
+        <v>12388.445494007581</v>
+      </c>
+    </row>
+    <row r="29" spans="4:30" x14ac:dyDescent="0.25">
       <c r="L29" s="9">
         <v>46</v>
       </c>
@@ -23270,14 +23863,14 @@
         <v>37</v>
       </c>
       <c r="P29" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.6497450415440946E-2</v>
       </c>
       <c r="R29">
         <v>19</v>
       </c>
       <c r="S29" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.15731450903726579</v>
       </c>
       <c r="T29" s="9">
@@ -23286,8 +23879,36 @@
       <c r="U29" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X29" s="25">
+        <f t="shared" si="1"/>
+        <v>9.5573145090372655</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="2"/>
+        <v>939921.47593538067</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="3"/>
+        <v>11832.160130783799</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="4"/>
+        <v>20283.701145625186</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="9"/>
+        <v>1625.3439821177344</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="10"/>
+        <v>3250.6879642354688</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="11"/>
+        <v>13002.751856941875</v>
+      </c>
+    </row>
+    <row r="30" spans="4:30" x14ac:dyDescent="0.25">
       <c r="L30" s="9">
         <v>48.5</v>
       </c>
@@ -23295,14 +23916,14 @@
         <v>39</v>
       </c>
       <c r="P30" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2841081008951963E-2</v>
       </c>
       <c r="R30">
         <v>20</v>
       </c>
       <c r="S30" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.13879121408374906</v>
       </c>
       <c r="T30" s="9">
@@ -23311,8 +23932,36 @@
       <c r="U30" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X30" s="25">
+        <f t="shared" si="1"/>
+        <v>9.5387912140837496</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="2"/>
+        <v>940833.64594946394</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="3"/>
+        <v>10919.99011670053</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="4"/>
+        <v>21978.041869557652</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="9"/>
+        <v>1694.3407239324661</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="10"/>
+        <v>3388.6814478649321</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="11"/>
+        <v>13554.725791459728</v>
+      </c>
+    </row>
+    <row r="31" spans="4:30" x14ac:dyDescent="0.25">
       <c r="L31" s="9">
         <v>51</v>
       </c>
@@ -23320,14 +23969,14 @@
         <v>41</v>
       </c>
       <c r="P31" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.9950815020564184E-3</v>
       </c>
       <c r="R31">
         <v>21</v>
       </c>
-      <c r="S31" s="11">
-        <f t="shared" si="4"/>
+      <c r="S31" s="24">
+        <f t="shared" si="8"/>
         <v>0.12244897959334383</v>
       </c>
       <c r="T31" s="9">
@@ -23336,8 +23985,36 @@
       <c r="U31" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="X31" s="25">
+        <f t="shared" si="1"/>
+        <v>9.522448979593344</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="2"/>
+        <v>941640.61971434858</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="3"/>
+        <v>10113.016351815895</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="4"/>
+        <v>23731.79194522963</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="9"/>
+        <v>1753.7500756719783</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="10"/>
+        <v>3507.5001513439565</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="11"/>
+        <v>14030.000605375826</v>
+      </c>
+    </row>
+    <row r="32" spans="4:30" x14ac:dyDescent="0.25">
       <c r="L32" s="9">
         <v>53.5</v>
       </c>
@@ -23345,14 +24022,14 @@
         <v>43</v>
       </c>
       <c r="P32" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.7798476750598712E-3</v>
       </c>
       <c r="R32">
         <v>22</v>
       </c>
       <c r="S32" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.1080309924690452</v>
       </c>
       <c r="T32" s="9">
@@ -23361,8 +24038,36 @@
       <c r="U32" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="X32" s="25">
+        <f t="shared" si="1"/>
+        <v>9.5080309924690454</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="2"/>
+        <v>942354.30161979317</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="3"/>
+        <v>9399.3344463713001</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="4"/>
+        <v>25533.722772536752</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="9"/>
+        <v>1801.9308273071219</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="10"/>
+        <v>3603.8616546142439</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="11"/>
+        <v>14415.446618456976</v>
+      </c>
+    </row>
+    <row r="33" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L33" s="9">
         <v>56</v>
       </c>
@@ -23370,14 +24075,14 @@
         <v>45</v>
       </c>
       <c r="P33" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6.0555814211901791E-3</v>
       </c>
       <c r="R33">
         <v>23</v>
       </c>
       <c r="S33" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.5310678558576611E-2</v>
       </c>
       <c r="T33" s="9">
@@ -23386,8 +24091,36 @@
       <c r="U33" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="X33" s="25">
+        <f t="shared" si="1"/>
+        <v>9.4953106785585764</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="2"/>
+        <v>942985.29891090386</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="3"/>
+        <v>8768.3371552606113</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="4"/>
+        <v>27371.210270582571</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="9"/>
+        <v>1837.4874980458189</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="10"/>
+        <v>3674.9749960916379</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="11"/>
+        <v>14699.899984366552</v>
+      </c>
+    </row>
+    <row r="34" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L34" s="9">
         <v>58.5</v>
       </c>
@@ -23395,14 +24128,14 @@
         <v>47</v>
       </c>
       <c r="P34" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.7134684225525626E-3</v>
       </c>
       <c r="R34">
         <v>24</v>
       </c>
       <c r="S34" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.4088142112544659E-2</v>
       </c>
       <c r="T34" s="9">
@@ -23411,8 +24144,36 @@
       <c r="U34" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="X34" s="25">
+        <f t="shared" si="1"/>
+        <v>9.4840881421125456</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="2"/>
+        <v>943543.05195737095</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="3"/>
+        <v>8210.584108793526</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="4"/>
+        <v>29230.56348000385</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="9"/>
+        <v>1859.3532094212787</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="10"/>
+        <v>3718.7064188425575</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="11"/>
+        <v>14874.82567537023</v>
+      </c>
+    </row>
+    <row r="35" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L35" s="9">
         <v>61</v>
       </c>
@@ -23420,14 +24181,14 @@
         <v>49</v>
       </c>
       <c r="P35" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.6688111388705593E-3</v>
       </c>
       <c r="R35">
         <v>25</v>
       </c>
       <c r="S35" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.4187024485340147E-2</v>
       </c>
       <c r="T35" s="9">
@@ -23436,8 +24197,36 @@
       <c r="U35" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="X35" s="25">
+        <f t="shared" si="1"/>
+        <v>9.4741870244853406</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="2"/>
+        <v>944035.95394550636</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="3"/>
+        <v>7717.682120658108</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="4"/>
+        <v>31097.419697759531</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="9"/>
+        <v>1866.8562177556814</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="10"/>
+        <v>3733.7124355113629</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="11"/>
+        <v>14934.849742045451</v>
+      </c>
+    </row>
+    <row r="36" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L36" s="9">
         <v>63.5</v>
       </c>
@@ -23445,14 +24234,14 @@
         <v>51</v>
       </c>
       <c r="P36" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.8556837483619717E-3</v>
       </c>
       <c r="R36">
         <v>26</v>
       </c>
-      <c r="S36" s="11">
-        <f t="shared" si="4"/>
+      <c r="S36" s="24">
+        <f t="shared" si="8"/>
         <v>6.5451732714253752E-2</v>
       </c>
       <c r="T36" s="9">
@@ -23461,8 +24250,36 @@
       <c r="U36" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="X36" s="25">
+        <f t="shared" si="1"/>
+        <v>9.4654517327142536</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="2"/>
+        <v>944471.46024960338</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="3"/>
+        <v>7282.1758165610954</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="4"/>
+        <v>32957.182859303255</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="9"/>
+        <v>1859.763161543724</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="10"/>
+        <v>3719.526323087448</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="11"/>
+        <v>14878.105292349792</v>
+      </c>
+    </row>
+    <row r="37" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L37" s="9">
         <v>66</v>
       </c>
@@ -23470,14 +24287,14 @@
         <v>53</v>
       </c>
       <c r="P37" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.2227717268567741E-3</v>
       </c>
       <c r="R37">
         <v>27</v>
       </c>
       <c r="S37" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.7744994424795248E-2</v>
       </c>
       <c r="T37" s="9">
@@ -23486,8 +24303,36 @@
       <c r="U37" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="X37" s="25">
+        <f t="shared" si="1"/>
+        <v>9.4577449944247949</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="2"/>
+        <v>944856.18790796655</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="3"/>
+        <v>6897.4481581979198</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="4"/>
+        <v>34795.477181622518</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="9"/>
+        <v>1838.2943223192633</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="10"/>
+        <v>3676.5886446385266</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="11"/>
+        <v>14706.354578554106</v>
+      </c>
+    </row>
+    <row r="38" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L38" s="9">
         <v>68.5</v>
       </c>
@@ -23495,14 +24340,14 @@
         <v>55</v>
       </c>
       <c r="P38" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.7301335109491214E-3</v>
       </c>
       <c r="R38">
         <v>28</v>
       </c>
       <c r="S38" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.094570063831888E-2</v>
       </c>
       <c r="T38" s="9">
@@ -23511,8 +24356,36 @@
       <c r="U38" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="X38" s="25">
+        <f t="shared" si="1"/>
+        <v>9.4509457006383197</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="2"/>
+        <v>945196.00573985791</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="3"/>
+        <v>6557.6303263065638</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="4"/>
+        <v>36598.586388320327</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="9"/>
+        <v>1803.109206697809</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="10"/>
+        <v>3606.218413395618</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="11"/>
+        <v>14424.873653582472</v>
+      </c>
+    </row>
+    <row r="39" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L39" s="9">
         <v>71</v>
       </c>
@@ -23520,14 +24393,14 @@
         <v>57</v>
       </c>
       <c r="P39" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.3466798814928478E-3</v>
       </c>
       <c r="R39">
         <v>29</v>
       </c>
       <c r="S39" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.4947002582352534E-2</v>
       </c>
       <c r="T39" s="9">
@@ -23536,8 +24409,36 @@
       <c r="U39" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="X39" s="25">
+        <f t="shared" si="1"/>
+        <v>9.444947002582353</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="2"/>
+        <v>945496.11570600851</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="3"/>
+        <v>6257.5203601559624</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="4"/>
+        <v>38353.850437015317</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="9"/>
+        <v>1755.2640486949895</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="10"/>
+        <v>3510.5280973899789</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" si="11"/>
+        <v>14042.112389559916</v>
+      </c>
+    </row>
+    <row r="40" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L40" s="9">
         <v>73.5</v>
       </c>
@@ -23545,14 +24446,14 @@
         <v>59</v>
       </c>
       <c r="P40" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.0482119973635505E-3</v>
       </c>
       <c r="R40">
         <v>30</v>
       </c>
       <c r="S40" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.9654632595600897E-2</v>
       </c>
       <c r="T40" s="9">
@@ -23561,8 +24462,36 @@
       <c r="U40" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="X40" s="25">
+        <f t="shared" si="1"/>
+        <v>9.4396546325956017</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="2"/>
+        <v>945761.12614821701</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="3"/>
+        <v>5992.5099179474637</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="4"/>
+        <v>40049.996293073149</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="9"/>
+        <v>1696.1458560578321</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="10"/>
+        <v>3392.2917121156643</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" si="11"/>
+        <v>13569.166848462657</v>
+      </c>
+    </row>
+    <row r="41" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L41" s="9">
         <v>76</v>
       </c>
@@ -23570,14 +24499,14 @@
         <v>61</v>
       </c>
       <c r="P41" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8.1589426449207663E-4</v>
       </c>
       <c r="R41">
         <v>31</v>
       </c>
-      <c r="S41" s="11">
-        <f t="shared" si="4"/>
+      <c r="S41" s="24">
+        <f t="shared" si="8"/>
         <v>3.4985422741170676E-2</v>
       </c>
       <c r="T41" s="9">
@@ -23586,8 +24515,36 @@
       <c r="U41" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="X41" s="25">
+        <f t="shared" si="1"/>
+        <v>9.4349854227411711</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="2"/>
+        <v>945995.11755161628</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="3"/>
+        <v>5758.5185145481955</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="4"/>
+        <v>41677.386187726799</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="9"/>
+        <v>1627.3898946536501</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="10"/>
+        <v>3254.7797893073002</v>
+      </c>
+      <c r="AD41">
+        <f t="shared" si="11"/>
+        <v>13019.119157229201</v>
+      </c>
+    </row>
+    <row r="42" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L42" s="9">
         <v>78.5</v>
       </c>
@@ -23595,14 +24552,14 @@
         <v>63</v>
       </c>
       <c r="P42" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6.3506566658785174E-4</v>
       </c>
       <c r="R42">
         <v>32</v>
       </c>
       <c r="S42" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.0865997848488574E-2</v>
       </c>
       <c r="T42" s="9">
@@ -23611,8 +24568,36 @@
       <c r="U42" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="X42" s="25">
+        <f t="shared" si="1"/>
+        <v>9.430865997848489</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="2"/>
+        <v>946201.70146339526</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="3"/>
+        <v>5551.9346027692081</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="4"/>
+        <v>43228.174892458599</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="9"/>
+        <v>1550.7887047318</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="10"/>
+        <v>3101.5774094635999</v>
+      </c>
+      <c r="AD42">
+        <f t="shared" si="11"/>
+        <v>12406.3096378544</v>
+      </c>
+    </row>
+    <row r="43" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L43" s="9">
         <v>81</v>
       </c>
@@ -23620,14 +24605,14 @@
         <v>65</v>
       </c>
       <c r="P43" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.9431454347794238E-4</v>
       </c>
       <c r="R43">
         <v>33</v>
       </c>
       <c r="S43" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.7231622445475182E-2</v>
       </c>
       <c r="T43" s="9">
@@ -23644,8 +24629,36 @@
         <f>2^V43-2^V44</f>
         <v>2301.3075199188606</v>
       </c>
-    </row>
-    <row r="44" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="X43" s="25">
+        <f t="shared" si="1"/>
+        <v>9.4272316224454755</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="2"/>
+        <v>946384.07317950949</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="3"/>
+        <v>5369.5628866549814</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="4"/>
+        <v>44696.375676402633</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="9"/>
+        <v>1468.2007839440339</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="10"/>
+        <v>2936.4015678880678</v>
+      </c>
+      <c r="AD43">
+        <f t="shared" si="11"/>
+        <v>11745.606271552271</v>
+      </c>
+    </row>
+    <row r="44" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L44" s="9">
         <v>83.5</v>
       </c>
@@ -23653,14 +24666,14 @@
         <v>67</v>
       </c>
       <c r="P44" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.8475842853646837E-4</v>
       </c>
       <c r="R44">
         <v>34</v>
       </c>
       <c r="S44" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.4025183460874892E-2</v>
       </c>
       <c r="T44" s="9">
@@ -23670,15 +24683,43 @@
         <v>0.18</v>
       </c>
       <c r="V44" s="9">
-        <f t="shared" ref="V44:V107" si="7">14.26-U44</f>
+        <f t="shared" ref="V44:V107" si="14">14.26-U44</f>
         <v>14.08</v>
       </c>
       <c r="W44" s="9">
-        <f t="shared" ref="W44:W107" si="8">2^V44-2^V45</f>
+        <f t="shared" ref="W44:W107" si="15">2^V44-2^V45</f>
         <v>2031.3710432185962</v>
       </c>
-    </row>
-    <row r="45" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="X44" s="25">
+        <f t="shared" si="1"/>
+        <v>9.4240251834608753</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="2"/>
+        <v>946545.05878036877</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="3"/>
+        <v>5208.5772857957054</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="4"/>
+        <v>46077.841765831763</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="9"/>
+        <v>1381.4660894291301</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" si="10"/>
+        <v>2762.9321788582602</v>
+      </c>
+      <c r="AD44">
+        <f t="shared" si="11"/>
+        <v>11051.728715433041</v>
+      </c>
+    </row>
+    <row r="45" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L45" s="9">
         <v>86</v>
       </c>
@@ -23686,14 +24727,14 @@
         <v>69</v>
       </c>
       <c r="P45" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.9948349746755637E-4</v>
       </c>
       <c r="R45">
         <v>35</v>
       </c>
       <c r="S45" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.1196292710227622E-2</v>
       </c>
       <c r="T45" s="9">
@@ -23703,15 +24744,43 @@
         <v>0.36</v>
       </c>
       <c r="V45" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>13.9</v>
       </c>
       <c r="W45" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1793.0973064271529</v>
       </c>
-    </row>
-    <row r="46" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="X45" s="25">
+        <f t="shared" si="1"/>
+        <v>9.4211962927102277</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="2"/>
+        <v>946687.15706085775</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="3"/>
+        <v>5066.4790053067263</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="4"/>
+        <v>47370.175569388412</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="9"/>
+        <v>1292.3338035566485</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" si="10"/>
+        <v>2584.667607113297</v>
+      </c>
+      <c r="AD45">
+        <f t="shared" si="11"/>
+        <v>10338.670428453188</v>
+      </c>
+    </row>
+    <row r="46" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L46" s="9">
         <v>88.5</v>
       </c>
@@ -23719,14 +24788,14 @@
         <v>71</v>
       </c>
       <c r="P46" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.3310825339567257E-4</v>
       </c>
       <c r="R46">
         <v>36</v>
       </c>
-      <c r="S46" s="11">
-        <f t="shared" si="4"/>
+      <c r="S46" s="24">
+        <f t="shared" si="8"/>
         <v>1.8700495061330438E-2</v>
       </c>
       <c r="T46" s="9">
@@ -23736,15 +24805,43 @@
         <v>0.54</v>
       </c>
       <c r="V46" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>13.719999999999999</v>
       </c>
       <c r="W46" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1582.7723650239259</v>
       </c>
-    </row>
-    <row r="47" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="X46" s="25">
+        <f t="shared" si="1"/>
+        <v>9.41870049506133</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="2"/>
+        <v>946812.57686166873</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="3"/>
+        <v>4941.0592044957448</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="4"/>
+        <v>48572.581316497904</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="9"/>
+        <v>1202.4057471094929</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="10"/>
+        <v>2404.8114942189859</v>
+      </c>
+      <c r="AD46">
+        <f t="shared" si="11"/>
+        <v>9619.2459768759436</v>
+      </c>
+    </row>
+    <row r="47" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L47" s="9">
         <v>91</v>
       </c>
@@ -23752,14 +24849,14 @@
         <v>73</v>
       </c>
       <c r="P47" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.8144391347328843E-4</v>
       </c>
       <c r="R47">
         <v>37</v>
       </c>
       <c r="S47" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.6498569835757315E-2</v>
       </c>
       <c r="T47" s="9">
@@ -23769,15 +24866,43 @@
         <v>0.72</v>
       </c>
       <c r="V47" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>13.54</v>
       </c>
       <c r="W47" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1397.1179090526675</v>
       </c>
-    </row>
-    <row r="48" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="X47" s="25">
+        <f t="shared" si="1"/>
+        <v>9.4164985698357579</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="2"/>
+        <v>946923.27026958682</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="3"/>
+        <v>4830.3657965776511</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="4"/>
+        <v>49685.678084678751</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="9"/>
+        <v>1113.096768180847</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="10"/>
+        <v>2226.193536361694</v>
+      </c>
+      <c r="AD47">
+        <f t="shared" si="11"/>
+        <v>8904.7741454467759</v>
+      </c>
+    </row>
+    <row r="48" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L48" s="9">
         <v>93.5</v>
       </c>
@@ -23785,14 +24910,14 @@
         <v>75</v>
       </c>
       <c r="P48" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.4123006481723028E-4</v>
       </c>
       <c r="R48">
         <v>38</v>
       </c>
       <c r="S48" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.4555914468180685E-2</v>
       </c>
       <c r="T48" s="9">
@@ -23802,15 +24927,43 @@
         <v>0.9</v>
       </c>
       <c r="V48" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>13.36</v>
       </c>
       <c r="W48" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1233.2401644921392</v>
       </c>
-    </row>
-    <row r="49" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="X48" s="25">
+        <f t="shared" si="1"/>
+        <v>9.4145559144681812</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="2"/>
+        <v>947020.96211530326</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="3"/>
+        <v>4732.6739508612081</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="4"/>
+        <v>50711.289746957322</v>
+      </c>
+      <c r="AB48">
+        <f t="shared" si="9"/>
+        <v>1025.6116622785703</v>
+      </c>
+      <c r="AC48">
+        <f t="shared" si="10"/>
+        <v>2051.2233245571406</v>
+      </c>
+      <c r="AD48">
+        <f t="shared" si="11"/>
+        <v>8204.8932982285623</v>
+      </c>
+    </row>
+    <row r="49" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L49" s="9">
         <v>96</v>
       </c>
@@ -23818,14 +24971,14 @@
         <v>77</v>
       </c>
       <c r="P49" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.0992890765231119E-4</v>
       </c>
       <c r="R49">
         <v>39</v>
       </c>
       <c r="S49" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.2842000737894039E-2</v>
       </c>
       <c r="T49" s="9">
@@ -23835,15 +24988,43 @@
         <v>1.08</v>
       </c>
       <c r="V49" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>13.18</v>
       </c>
       <c r="W49" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1088.5847883431725</v>
       </c>
-    </row>
-    <row r="50" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="X49" s="25">
+        <f t="shared" si="1"/>
+        <v>9.4128420007378946</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="2"/>
+        <v>947107.17615944415</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="3"/>
+        <v>4646.4599067203235</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="4"/>
+        <v>51652.226602209637</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" si="9"/>
+        <v>940.93685525231558</v>
+      </c>
+      <c r="AC49">
+        <f t="shared" si="10"/>
+        <v>1881.8737105046312</v>
+      </c>
+      <c r="AD49">
+        <f t="shared" si="11"/>
+        <v>7527.4948420185247</v>
+      </c>
+    </row>
+    <row r="50" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L50" s="9">
         <v>98.5</v>
       </c>
@@ -23851,14 +25032,14 @@
         <v>79</v>
       </c>
       <c r="P50" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8.55651008393225E-5</v>
       </c>
       <c r="R50">
         <v>40</v>
       </c>
       <c r="S50" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.1329895027384266E-2</v>
       </c>
       <c r="T50" s="9">
@@ -23868,15 +25049,43 @@
         <v>1.26</v>
       </c>
       <c r="V50" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="W50" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>960.89705438695637</v>
       </c>
-    </row>
-    <row r="51" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="X50" s="25">
+        <f t="shared" si="1"/>
+        <v>9.411329895027384</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="2"/>
+        <v>947183.25832135347</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="3"/>
+        <v>4570.377744811005</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="4"/>
+        <v>52512.070861644832</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="9"/>
+        <v>859.84425943519454</v>
+      </c>
+      <c r="AC50">
+        <f t="shared" si="10"/>
+        <v>1719.6885188703891</v>
+      </c>
+      <c r="AD50">
+        <f t="shared" si="11"/>
+        <v>6878.7540754815564</v>
+      </c>
+    </row>
+    <row r="51" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L51" s="9">
         <v>101</v>
       </c>
@@ -23884,14 +25093,14 @@
         <v>81</v>
       </c>
       <c r="P51" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6.6601102821833602E-5</v>
       </c>
       <c r="R51">
         <v>41</v>
       </c>
-      <c r="S51" s="11">
-        <f t="shared" si="4"/>
+      <c r="S51" s="24">
+        <f t="shared" si="8"/>
         <v>9.9958350689674201E-3</v>
       </c>
       <c r="T51" s="9">
@@ -23901,15 +25110,43 @@
         <v>1.44</v>
       </c>
       <c r="V51" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>12.82</v>
       </c>
       <c r="W51" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>848.18670903422662</v>
       </c>
-    </row>
-    <row r="52" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="X51" s="25">
+        <f t="shared" si="1"/>
+        <v>9.4099958350689672</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="2"/>
+        <v>947250.39727116004</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" si="3"/>
+        <v>4503.2387950044358</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="4"/>
+        <v>53294.975222330751</v>
+      </c>
+      <c r="AB51">
+        <f t="shared" si="9"/>
+        <v>782.90436068591953</v>
+      </c>
+      <c r="AC51">
+        <f t="shared" si="10"/>
+        <v>1565.8087213718391</v>
+      </c>
+      <c r="AD51">
+        <f t="shared" si="11"/>
+        <v>6263.2348854873562</v>
+      </c>
+    </row>
+    <row r="52" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L52" s="9">
         <v>103.5</v>
       </c>
@@ -23917,14 +25154,14 @@
         <v>83</v>
       </c>
       <c r="P52" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5.1840141057205038E-5</v>
       </c>
       <c r="R52">
         <v>42</v>
       </c>
       <c r="S52" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.8188565281938618E-3</v>
       </c>
       <c r="T52" s="9">
@@ -23934,15 +25171,43 @@
         <v>1.62</v>
       </c>
       <c r="V52" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>12.64</v>
       </c>
       <c r="W52" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>748.69694947843163</v>
       </c>
-    </row>
-    <row r="53" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="X52" s="25">
+        <f t="shared" si="1"/>
+        <v>9.4088188565281943</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="2"/>
+        <v>947309.64267396438</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="3"/>
+        <v>4443.9933922000928</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="4"/>
+        <v>54005.480841001641</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="9"/>
+        <v>710.50561867088982</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" si="10"/>
+        <v>1421.0112373417796</v>
+      </c>
+      <c r="AD52">
+        <f t="shared" si="11"/>
+        <v>5684.0449493671185</v>
+      </c>
+    </row>
+    <row r="53" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L53" s="9">
         <v>106</v>
       </c>
@@ -23950,14 +25215,14 @@
         <v>85</v>
       </c>
       <c r="P53" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.0350686564756326E-5</v>
       </c>
       <c r="R53">
         <v>43</v>
       </c>
       <c r="S53" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.7804635558979315E-3</v>
       </c>
       <c r="T53" s="9">
@@ -23967,15 +25232,43 @@
         <v>1.8</v>
       </c>
       <c r="V53" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>12.459999999999999</v>
       </c>
       <c r="W53" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>660.8770406182748</v>
       </c>
-    </row>
-    <row r="54" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="X53" s="25">
+        <f t="shared" si="1"/>
+        <v>9.4077804635558984</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="2"/>
+        <v>947361.92134570819</v>
+      </c>
+      <c r="Z53">
+        <f t="shared" si="3"/>
+        <v>4391.7147204562789</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="4"/>
+        <v>54648.358392246642</v>
+      </c>
+      <c r="AB53">
+        <f t="shared" si="9"/>
+        <v>642.87755124500109</v>
+      </c>
+      <c r="AC53">
+        <f t="shared" si="10"/>
+        <v>1285.7551024900022</v>
+      </c>
+      <c r="AD53">
+        <f t="shared" si="11"/>
+        <v>5143.0204099600087</v>
+      </c>
+    </row>
+    <row r="54" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L54" s="9">
         <v>108.5</v>
       </c>
@@ -23983,14 +25276,14 @@
         <v>87</v>
       </c>
       <c r="P54" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.1407667360521451E-5</v>
       </c>
       <c r="R54">
         <v>44</v>
       </c>
       <c r="S54" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.8643381317207829E-3</v>
       </c>
       <c r="T54" s="9">
@@ -24000,15 +25293,43 @@
         <v>1.98</v>
       </c>
       <c r="V54" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>12.28</v>
       </c>
       <c r="W54" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>583.35814393345299</v>
       </c>
-    </row>
-    <row r="55" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="X54" s="25">
+        <f t="shared" si="1"/>
+        <v>9.4068643381317205</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="2"/>
+        <v>947408.05155343923</v>
+      </c>
+      <c r="Z54">
+        <f t="shared" si="3"/>
+        <v>4345.5845127252396</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" si="4"/>
+        <v>55228.473706403463</v>
+      </c>
+      <c r="AB54">
+        <f t="shared" si="9"/>
+        <v>580.11531415682111</v>
+      </c>
+      <c r="AC54">
+        <f t="shared" si="10"/>
+        <v>1160.2306283136422</v>
+      </c>
+      <c r="AD54">
+        <f t="shared" si="11"/>
+        <v>4640.9225132545689</v>
+      </c>
+    </row>
+    <row r="55" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L55" s="9">
         <v>111</v>
       </c>
@@ -24016,14 +25337,14 @@
         <v>89</v>
       </c>
       <c r="P55" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.4446710899109121E-5</v>
       </c>
       <c r="R55">
         <v>45</v>
       </c>
       <c r="S55" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.0560836315308748E-3</v>
       </c>
       <c r="T55" s="9">
@@ -24033,27 +25354,55 @@
         <v>2.16</v>
       </c>
       <c r="V55" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>12.1</v>
       </c>
       <c r="W55" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>514.9319815606209</v>
       </c>
-    </row>
-    <row r="56" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="X55" s="25">
+        <f t="shared" si="1"/>
+        <v>9.4060560836315315</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="2"/>
+        <v>947448.75566816528</v>
+      </c>
+      <c r="Z55">
+        <f t="shared" si="3"/>
+        <v>4304.8803979991935</v>
+      </c>
+      <c r="AA55">
+        <f t="shared" si="4"/>
+        <v>55750.677791547081</v>
+      </c>
+      <c r="AB55">
+        <f t="shared" si="9"/>
+        <v>522.2040851436177</v>
+      </c>
+      <c r="AC55">
+        <f t="shared" si="10"/>
+        <v>1044.4081702872354</v>
+      </c>
+      <c r="AD55">
+        <f t="shared" si="11"/>
+        <v>4177.6326811489416</v>
+      </c>
+    </row>
+    <row r="56" spans="12:30" x14ac:dyDescent="0.25">
       <c r="O56" s="9">
         <v>91</v>
       </c>
       <c r="P56" s="11">
-        <f t="shared" ref="P56:P66" si="9">P55/1.28474</f>
+        <f t="shared" ref="P56:P66" si="16">P55/1.28474</f>
         <v>1.9028527872650591E-5</v>
       </c>
       <c r="R56">
         <v>46</v>
       </c>
-      <c r="S56" s="11">
-        <f t="shared" si="4"/>
+      <c r="S56" s="24">
+        <f t="shared" si="8"/>
         <v>5.342998588984434E-3</v>
       </c>
       <c r="T56" s="9">
@@ -24063,27 +25412,55 @@
         <v>2.34</v>
       </c>
       <c r="V56" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>11.92</v>
       </c>
       <c r="W56" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>454.53200300943763</v>
       </c>
-    </row>
-    <row r="57" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="X56" s="25">
+        <f t="shared" si="1"/>
+        <v>9.4053429985889849</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="2"/>
+        <v>947484.67135625437</v>
+      </c>
+      <c r="Z56">
+        <f t="shared" si="3"/>
+        <v>4268.9647099100985</v>
+      </c>
+      <c r="AA56">
+        <f t="shared" si="4"/>
+        <v>56219.719840470229</v>
+      </c>
+      <c r="AB56">
+        <f t="shared" si="9"/>
+        <v>469.04204892314738</v>
+      </c>
+      <c r="AC56">
+        <f t="shared" si="10"/>
+        <v>938.08409784629475</v>
+      </c>
+      <c r="AD56">
+        <f t="shared" si="11"/>
+        <v>3752.336391385179</v>
+      </c>
+    </row>
+    <row r="57" spans="12:30" x14ac:dyDescent="0.25">
       <c r="O57" s="9">
         <v>93</v>
       </c>
       <c r="P57" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>1.4811189713600099E-5</v>
       </c>
       <c r="R57">
         <v>47</v>
       </c>
       <c r="S57" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.7138770959596699E-3</v>
       </c>
       <c r="T57" s="9">
@@ -24093,27 +25470,55 @@
         <v>2.52</v>
       </c>
       <c r="V57" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>11.74</v>
       </c>
       <c r="W57" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>401.21676096642932</v>
       </c>
-    </row>
-    <row r="58" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="X57" s="25">
+        <f t="shared" si="1"/>
+        <v>9.4047138770959595</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="2"/>
+        <v>947516.36147519667</v>
+      </c>
+      <c r="Z57">
+        <f t="shared" si="3"/>
+        <v>4237.2745909678051</v>
+      </c>
+      <c r="AA57">
+        <f t="shared" si="4"/>
+        <v>56640.18105212845</v>
+      </c>
+      <c r="AB57">
+        <f t="shared" si="9"/>
+        <v>420.46121165822115</v>
+      </c>
+      <c r="AC57">
+        <f t="shared" si="10"/>
+        <v>840.92242331644229</v>
+      </c>
+      <c r="AD57">
+        <f t="shared" si="11"/>
+        <v>3363.6896932657692</v>
+      </c>
+    </row>
+    <row r="58" spans="12:30" x14ac:dyDescent="0.25">
       <c r="O58" s="9">
         <v>95</v>
       </c>
       <c r="P58" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>1.1528550300916994E-5</v>
       </c>
       <c r="R58">
         <v>48</v>
       </c>
       <c r="S58" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.1588327052200736E-3</v>
       </c>
       <c r="T58" s="9">
@@ -24123,27 +25528,55 @@
         <v>2.7</v>
       </c>
       <c r="V58" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>11.559999999999999</v>
       </c>
       <c r="W58" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>354.15523706709337</v>
       </c>
-    </row>
-    <row r="59" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="X58" s="25">
+        <f t="shared" si="1"/>
+        <v>9.404158832705221</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" si="2"/>
+        <v>947544.32282140222</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" si="3"/>
+        <v>4209.3132447622484</v>
+      </c>
+      <c r="AA58">
+        <f t="shared" si="4"/>
+        <v>57016.426681629811</v>
+      </c>
+      <c r="AB58">
+        <f t="shared" si="9"/>
+        <v>376.24562950136169</v>
+      </c>
+      <c r="AC58">
+        <f t="shared" si="10"/>
+        <v>752.49125900272338</v>
+      </c>
+      <c r="AD58">
+        <f t="shared" si="11"/>
+        <v>3009.9650360108935</v>
+      </c>
+    </row>
+    <row r="59" spans="12:30" x14ac:dyDescent="0.25">
       <c r="O59" s="9">
         <v>97</v>
       </c>
       <c r="P59" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>8.9734501151337966E-6</v>
       </c>
       <c r="R59">
         <v>49</v>
       </c>
       <c r="S59" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.6691430679923042E-3</v>
       </c>
       <c r="T59" s="9">
@@ -24153,27 +25586,55 @@
         <v>2.88</v>
       </c>
       <c r="V59" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>11.379999999999999</v>
       </c>
       <c r="W59" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>312.61388891115075</v>
       </c>
-    </row>
-    <row r="60" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="X59" s="25">
+        <f t="shared" si="1"/>
+        <v>9.403669143067992</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" si="2"/>
+        <v>947568.99386140495</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" si="3"/>
+        <v>4184.6422047595261</v>
+      </c>
+      <c r="AA59">
+        <f t="shared" si="4"/>
+        <v>57352.573590886437</v>
+      </c>
+      <c r="AB59">
+        <f t="shared" si="9"/>
+        <v>336.1469092566258</v>
+      </c>
+      <c r="AC59">
+        <f t="shared" si="10"/>
+        <v>672.29381851325161</v>
+      </c>
+      <c r="AD59">
+        <f t="shared" si="11"/>
+        <v>2689.1752740530064</v>
+      </c>
+    </row>
+    <row r="60" spans="12:30" x14ac:dyDescent="0.25">
       <c r="O60" s="9">
         <v>99</v>
       </c>
       <c r="P60" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>6.9846428967213576E-6</v>
       </c>
       <c r="R60">
         <v>50</v>
       </c>
       <c r="S60" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.2371128649868537E-3</v>
       </c>
       <c r="T60" s="9">
@@ -24183,27 +25644,55 @@
         <v>3.06</v>
       </c>
       <c r="V60" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>11.2</v>
       </c>
       <c r="W60" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>275.94521642394648</v>
       </c>
-    </row>
-    <row r="61" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="X60" s="25">
+        <f t="shared" si="1"/>
+        <v>9.4032371128649874</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="2"/>
+        <v>947590.76156319585</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="3"/>
+        <v>4162.8745029686252</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" si="4"/>
+        <v>57652.470625490016</v>
+      </c>
+      <c r="AB60">
+        <f t="shared" si="9"/>
+        <v>299.8970346035785</v>
+      </c>
+      <c r="AC60">
+        <f t="shared" si="10"/>
+        <v>599.79406920715701</v>
+      </c>
+      <c r="AD60">
+        <f t="shared" si="11"/>
+        <v>2399.176276828628</v>
+      </c>
+    </row>
+    <row r="61" spans="12:30" x14ac:dyDescent="0.25">
       <c r="O61" s="9">
         <v>101</v>
       </c>
       <c r="P61" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>5.4366197804391221E-6</v>
       </c>
       <c r="R61">
         <v>51</v>
       </c>
-      <c r="S61" s="11">
-        <f t="shared" si="4"/>
+      <c r="S61" s="24">
+        <f t="shared" si="8"/>
         <v>2.8559528768654094E-3</v>
       </c>
       <c r="T61" s="9">
@@ -24213,27 +25702,55 @@
         <v>3.24</v>
       </c>
       <c r="V61" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>11.02</v>
       </c>
       <c r="W61" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>243.57766934949268</v>
       </c>
-    </row>
-    <row r="62" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="X61" s="25">
+        <f t="shared" si="1"/>
+        <v>9.402855952876866</v>
+      </c>
+      <c r="Y61">
+        <f t="shared" si="2"/>
+        <v>947609.9674313392</v>
+      </c>
+      <c r="Z61">
+        <f t="shared" si="3"/>
+        <v>4143.6686348252697</v>
+      </c>
+      <c r="AA61">
+        <f t="shared" si="4"/>
+        <v>57919.689326248532</v>
+      </c>
+      <c r="AB61">
+        <f t="shared" si="9"/>
+        <v>267.21870075851621</v>
+      </c>
+      <c r="AC61">
+        <f t="shared" si="10"/>
+        <v>534.43740151703241</v>
+      </c>
+      <c r="AD61">
+        <f t="shared" si="11"/>
+        <v>2137.7496060681297</v>
+      </c>
+    </row>
+    <row r="62" spans="12:30" x14ac:dyDescent="0.25">
       <c r="O62" s="9">
         <v>103</v>
       </c>
       <c r="P62" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>4.2316887311355782E-6</v>
       </c>
       <c r="R62">
         <v>52</v>
       </c>
       <c r="S62" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.5196732937851807E-3</v>
       </c>
       <c r="T62" s="9">
@@ -24243,27 +25760,55 @@
         <v>3.42</v>
       </c>
       <c r="V62" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10.84</v>
       </c>
       <c r="W62" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>215.00673856429034</v>
       </c>
-    </row>
-    <row r="63" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="X62" s="25">
+        <f t="shared" si="1"/>
+        <v>9.402519673293785</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" si="2"/>
+        <v>947626.91283781908</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" si="3"/>
+        <v>4126.7232283453923</v>
+      </c>
+      <c r="AA62">
+        <f t="shared" si="4"/>
+        <v>58157.522741409506</v>
+      </c>
+      <c r="AB62">
+        <f t="shared" si="9"/>
+        <v>237.83341516097425</v>
+      </c>
+      <c r="AC62">
+        <f t="shared" si="10"/>
+        <v>475.66683032194851</v>
+      </c>
+      <c r="AD62">
+        <f t="shared" si="11"/>
+        <v>1902.667321287794</v>
+      </c>
+    </row>
+    <row r="63" spans="12:30" x14ac:dyDescent="0.25">
       <c r="O63" s="9">
         <v>105</v>
       </c>
       <c r="P63" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>3.2938094331425645E-6</v>
       </c>
       <c r="R63">
         <v>53</v>
       </c>
       <c r="S63" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.222989587413089E-3</v>
       </c>
       <c r="T63" s="9">
@@ -24273,27 +25818,55 @@
         <v>3.6</v>
       </c>
       <c r="V63" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10.66</v>
       </c>
       <c r="W63" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>189.78709235338033</v>
       </c>
-    </row>
-    <row r="64" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="X63" s="25">
+        <f t="shared" si="1"/>
+        <v>9.402222989587413</v>
+      </c>
+      <c r="Y63">
+        <f t="shared" si="2"/>
+        <v>947641.863730137</v>
+      </c>
+      <c r="Z63">
+        <f t="shared" si="3"/>
+        <v>4111.7723360274686</v>
+      </c>
+      <c r="AA63">
+        <f t="shared" si="4"/>
+        <v>58368.99039791504</v>
+      </c>
+      <c r="AB63">
+        <f t="shared" si="9"/>
+        <v>211.46765650553425</v>
+      </c>
+      <c r="AC63">
+        <f t="shared" si="10"/>
+        <v>422.9353130110685</v>
+      </c>
+      <c r="AD63">
+        <f t="shared" si="11"/>
+        <v>1691.741252044274</v>
+      </c>
+    </row>
+    <row r="64" spans="12:30" x14ac:dyDescent="0.25">
       <c r="O64" s="9">
         <v>107</v>
       </c>
       <c r="P64" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2.5637945678834353E-6</v>
       </c>
       <c r="R64">
         <v>54</v>
       </c>
       <c r="S64" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.9612394662180074E-3</v>
       </c>
       <c r="T64" s="9">
@@ -24303,27 +25876,55 @@
         <v>3.78</v>
       </c>
       <c r="V64" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10.48</v>
       </c>
       <c r="W64" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>167.52563507762147</v>
       </c>
-    </row>
-    <row r="65" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="X64" s="25">
+        <f t="shared" si="1"/>
+        <v>9.4019612394662175</v>
+      </c>
+      <c r="Y64">
+        <f t="shared" si="2"/>
+        <v>947655.05478889553</v>
+      </c>
+      <c r="Z64">
+        <f t="shared" si="3"/>
+        <v>4098.5812772689387</v>
+      </c>
+      <c r="AA64">
+        <f t="shared" si="4"/>
+        <v>58556.847788052735</v>
+      </c>
+      <c r="AB64">
+        <f t="shared" si="9"/>
+        <v>187.85739013769489</v>
+      </c>
+      <c r="AC64">
+        <f t="shared" si="10"/>
+        <v>375.71478027538978</v>
+      </c>
+      <c r="AD64">
+        <f t="shared" si="11"/>
+        <v>1502.8591211015591</v>
+      </c>
+    </row>
+    <row r="65" spans="15:30" x14ac:dyDescent="0.25">
       <c r="O65" s="9">
         <v>109</v>
       </c>
       <c r="P65" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>1.9955746438060895E-6</v>
       </c>
       <c r="R65">
         <v>55</v>
       </c>
       <c r="S65" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.7303096090194696E-3</v>
       </c>
       <c r="T65" s="9">
@@ -24333,27 +25934,55 @@
         <v>3.96</v>
       </c>
       <c r="V65" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10.3</v>
       </c>
       <c r="W65" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>147.87538003851023</v>
       </c>
-    </row>
-    <row r="66" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="X65" s="25">
+        <f t="shared" si="1"/>
+        <v>9.4017303096090199</v>
+      </c>
+      <c r="Y65">
+        <f t="shared" si="2"/>
+        <v>947666.69309883751</v>
+      </c>
+      <c r="Z65">
+        <f t="shared" si="3"/>
+        <v>4086.9429673269624</v>
+      </c>
+      <c r="AA65">
+        <f t="shared" si="4"/>
+        <v>58723.599012435057</v>
+      </c>
+      <c r="AB65">
+        <f t="shared" si="9"/>
+        <v>166.75122438232211</v>
+      </c>
+      <c r="AC65">
+        <f t="shared" si="10"/>
+        <v>333.50244876464421</v>
+      </c>
+      <c r="AD65">
+        <f t="shared" si="11"/>
+        <v>1334.0097950585769</v>
+      </c>
+    </row>
+    <row r="66" spans="15:30" x14ac:dyDescent="0.25">
       <c r="O66" s="9">
         <v>111</v>
       </c>
       <c r="P66" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>1.5532906609945122E-6</v>
       </c>
       <c r="R66">
         <v>56</v>
       </c>
-      <c r="S66" s="11">
-        <f t="shared" si="4"/>
+      <c r="S66" s="24">
+        <f t="shared" si="8"/>
         <v>1.5265710254335184E-3</v>
       </c>
       <c r="T66" s="9">
@@ -24363,20 +25992,48 @@
         <v>4.1399999999999997</v>
       </c>
       <c r="V66" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>10.120000000000001</v>
       </c>
       <c r="W66" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>130.53004103761407</v>
       </c>
-    </row>
-    <row r="67" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="X66" s="25">
+        <f t="shared" si="1"/>
+        <v>9.4015265710254337</v>
+      </c>
+      <c r="Y66">
+        <f t="shared" si="2"/>
+        <v>947676.96138996503</v>
+      </c>
+      <c r="Z66">
+        <f t="shared" si="3"/>
+        <v>4076.6746761994436</v>
+      </c>
+      <c r="AA66">
+        <f t="shared" si="4"/>
+        <v>58871.51147997527</v>
+      </c>
+      <c r="AB66">
+        <f t="shared" si="9"/>
+        <v>147.91246754021267</v>
+      </c>
+      <c r="AC66">
+        <f t="shared" si="10"/>
+        <v>295.82493508042535</v>
+      </c>
+      <c r="AD66">
+        <f t="shared" si="11"/>
+        <v>1183.2997403217014</v>
+      </c>
+    </row>
+    <row r="67" spans="15:30" x14ac:dyDescent="0.25">
       <c r="R67">
         <v>57</v>
       </c>
       <c r="S67" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.3468220274253369E-3</v>
       </c>
       <c r="T67" s="9">
@@ -24386,20 +26043,48 @@
         <v>4.32</v>
       </c>
       <c r="V67" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9.94</v>
       </c>
       <c r="W67" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>115.21925832984232</v>
       </c>
-    </row>
-    <row r="68" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="X67" s="25">
+        <f t="shared" si="1"/>
+        <v>9.4013468220274259</v>
+      </c>
+      <c r="Y67">
+        <f t="shared" si="2"/>
+        <v>947686.0208988447</v>
+      </c>
+      <c r="Z67">
+        <f t="shared" si="3"/>
+        <v>4067.6151673197746</v>
+      </c>
+      <c r="AA67">
+        <f t="shared" si="4"/>
+        <v>59002.631794723187</v>
+      </c>
+      <c r="AB67">
+        <f t="shared" si="9"/>
+        <v>131.12031474791729</v>
+      </c>
+      <c r="AC67">
+        <f t="shared" si="10"/>
+        <v>262.24062949583458</v>
+      </c>
+      <c r="AD67">
+        <f t="shared" si="11"/>
+        <v>1048.9625179833383</v>
+      </c>
+    </row>
+    <row r="68" spans="15:30" x14ac:dyDescent="0.25">
       <c r="R68">
         <v>58</v>
       </c>
       <c r="S68" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.1882379157844764E-3</v>
       </c>
       <c r="T68" s="9">
@@ -24409,20 +26094,48 @@
         <v>4.5</v>
       </c>
       <c r="V68" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9.76</v>
       </c>
       <c r="W68" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>101.70438455813962</v>
       </c>
-    </row>
-    <row r="69" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="X68" s="25">
+        <f t="shared" si="1"/>
+        <v>9.4011882379157843</v>
+      </c>
+      <c r="Y68">
+        <f t="shared" si="2"/>
+        <v>947694.01389441907</v>
+      </c>
+      <c r="Z68">
+        <f t="shared" si="3"/>
+        <v>4059.6221717454027</v>
+      </c>
+      <c r="AA68">
+        <f t="shared" si="4"/>
+        <v>59118.802156116384</v>
+      </c>
+      <c r="AB68">
+        <f t="shared" si="9"/>
+        <v>116.1703613931968</v>
+      </c>
+      <c r="AC68">
+        <f t="shared" si="10"/>
+        <v>232.3407227863936</v>
+      </c>
+      <c r="AD68">
+        <f t="shared" si="11"/>
+        <v>929.36289114557439</v>
+      </c>
+    </row>
+    <row r="69" spans="15:30" x14ac:dyDescent="0.25">
       <c r="R69">
         <v>59</v>
       </c>
       <c r="S69" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0483265908613957E-3</v>
       </c>
       <c r="T69" s="9">
@@ -24432,20 +26145,48 @@
         <v>4.68</v>
       </c>
       <c r="V69" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9.58</v>
       </c>
       <c r="W69" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>89.774764985366801</v>
       </c>
-    </row>
-    <row r="70" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="X69" s="25">
+        <f t="shared" si="1"/>
+        <v>9.4010483265908622</v>
+      </c>
+      <c r="Y69">
+        <f t="shared" si="2"/>
+        <v>947701.06590751233</v>
+      </c>
+      <c r="Z69">
+        <f t="shared" si="3"/>
+        <v>4052.5701586521463</v>
+      </c>
+      <c r="AA69">
+        <f t="shared" si="4"/>
+        <v>59221.676764214775</v>
+      </c>
+      <c r="AB69">
+        <f t="shared" si="9"/>
+        <v>102.87460809839104</v>
+      </c>
+      <c r="AC69">
+        <f t="shared" si="10"/>
+        <v>205.74921619678207</v>
+      </c>
+      <c r="AD69">
+        <f t="shared" si="11"/>
+        <v>822.99686478712829</v>
+      </c>
+    </row>
+    <row r="70" spans="15:30" x14ac:dyDescent="0.25">
       <c r="R70">
         <v>60</v>
       </c>
       <c r="S70" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.2488939000193583E-4</v>
       </c>
       <c r="T70" s="9">
@@ -24455,20 +26196,48 @@
         <v>4.8600000000000003</v>
       </c>
       <c r="V70" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9.3999999999999986</v>
       </c>
       <c r="W70" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>79.244454043872679</v>
       </c>
-    </row>
-    <row r="71" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="X70" s="25">
+        <f t="shared" si="1"/>
+        <v>9.4009248893900015</v>
+      </c>
+      <c r="Y70">
+        <f t="shared" si="2"/>
+        <v>947707.28769867681</v>
+      </c>
+      <c r="Z70">
+        <f t="shared" si="3"/>
+        <v>4046.3483674876625</v>
+      </c>
+      <c r="AA70">
+        <f t="shared" si="4"/>
+        <v>59312.737857272929</v>
+      </c>
+      <c r="AB70">
+        <f t="shared" si="9"/>
+        <v>91.061093058153347</v>
+      </c>
+      <c r="AC70">
+        <f t="shared" si="10"/>
+        <v>182.12218611630669</v>
+      </c>
+      <c r="AD70">
+        <f t="shared" si="11"/>
+        <v>728.48874446522677</v>
+      </c>
+    </row>
+    <row r="71" spans="15:30" x14ac:dyDescent="0.25">
       <c r="R71">
         <v>61</v>
       </c>
-      <c r="S71" s="11">
-        <f t="shared" si="4"/>
+      <c r="S71" s="24">
+        <f t="shared" si="8"/>
         <v>8.159865362522815E-4</v>
       </c>
       <c r="T71" s="9">
@@ -24478,20 +26247,48 @@
         <v>5.04</v>
       </c>
       <c r="V71" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9.2199999999999989</v>
       </c>
       <c r="W71" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>69.949317023942967</v>
       </c>
-    </row>
-    <row r="72" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="X71" s="25">
+        <f t="shared" si="1"/>
+        <v>9.4008159865362533</v>
+      </c>
+      <c r="Y71">
+        <f t="shared" si="2"/>
+        <v>947712.77699499938</v>
+      </c>
+      <c r="Z71">
+        <f t="shared" si="3"/>
+        <v>4040.8590711650904</v>
+      </c>
+      <c r="AA71">
+        <f t="shared" si="4"/>
+        <v>59393.311118569007</v>
+      </c>
+      <c r="AB71">
+        <f t="shared" si="9"/>
+        <v>80.573261296078272</v>
+      </c>
+      <c r="AC71">
+        <f t="shared" si="10"/>
+        <v>161.14652259215654</v>
+      </c>
+      <c r="AD71">
+        <f t="shared" si="11"/>
+        <v>644.58609036862617</v>
+      </c>
+    </row>
+    <row r="72" spans="15:30" x14ac:dyDescent="0.25">
       <c r="R72">
         <v>62</v>
       </c>
       <c r="S72" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.1990665537162489E-4</v>
       </c>
       <c r="T72" s="9">
@@ -24501,20 +26298,48 @@
         <v>5.22</v>
       </c>
       <c r="V72" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9.0399999999999991</v>
       </c>
       <c r="W72" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>61.744471725519418</v>
       </c>
-    </row>
-    <row r="73" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="X72" s="25">
+        <f t="shared" si="1"/>
+        <v>9.4007199066553717</v>
+      </c>
+      <c r="Y72">
+        <f t="shared" si="2"/>
+        <v>947717.62002292543</v>
+      </c>
+      <c r="Z72">
+        <f t="shared" si="3"/>
+        <v>4036.0160432390403</v>
+      </c>
+      <c r="AA72">
+        <f t="shared" si="4"/>
+        <v>59464.580276393506</v>
+      </c>
+      <c r="AB72">
+        <f t="shared" si="9"/>
+        <v>71.269157824499416</v>
+      </c>
+      <c r="AC72">
+        <f t="shared" si="10"/>
+        <v>142.53831564899883</v>
+      </c>
+      <c r="AD72">
+        <f t="shared" si="11"/>
+        <v>570.15326259599533</v>
+      </c>
+    </row>
+    <row r="73" spans="15:30" x14ac:dyDescent="0.25">
       <c r="R73">
         <v>63</v>
       </c>
       <c r="S73" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.3513988212193415E-4</v>
       </c>
       <c r="T73" s="9">
@@ -24524,20 +26349,48 @@
         <v>5.4</v>
       </c>
       <c r="V73" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>8.86</v>
       </c>
       <c r="W73" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>54.502030196499959</v>
       </c>
-    </row>
-    <row r="74" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="X73" s="25">
+        <f t="shared" si="1"/>
+        <v>9.4006351398821231</v>
+      </c>
+      <c r="Y73">
+        <f t="shared" si="2"/>
+        <v>947721.89286100003</v>
+      </c>
+      <c r="Z73">
+        <f t="shared" si="3"/>
+        <v>4031.7432051644428</v>
+      </c>
+      <c r="AA73">
+        <f t="shared" si="4"/>
+        <v>59527.600788803495</v>
+      </c>
+      <c r="AB73">
+        <f t="shared" si="9"/>
+        <v>63.020512409988442</v>
+      </c>
+      <c r="AC73">
+        <f t="shared" si="10"/>
+        <v>126.04102481997688</v>
+      </c>
+      <c r="AD73">
+        <f t="shared" si="11"/>
+        <v>504.16409927990753</v>
+      </c>
+    </row>
+    <row r="74" spans="15:30" x14ac:dyDescent="0.25">
       <c r="R74">
         <v>64</v>
       </c>
       <c r="S74" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.6035413320859346E-4</v>
       </c>
       <c r="T74" s="9">
@@ -24547,20 +26400,48 @@
         <v>5.58</v>
       </c>
       <c r="V74" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>8.68</v>
       </c>
       <c r="W74" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>48.109105358373938</v>
       </c>
-    </row>
-    <row r="75" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="X74" s="25">
+        <f t="shared" si="1"/>
+        <v>9.4005603541332086</v>
+      </c>
+      <c r="Y74">
+        <f t="shared" si="2"/>
+        <v>947725.66263364581</v>
+      </c>
+      <c r="Z74">
+        <f t="shared" si="3"/>
+        <v>4027.9734325186582</v>
+      </c>
+      <c r="AA74">
+        <f t="shared" si="4"/>
+        <v>59583.312556738987</v>
+      </c>
+      <c r="AB74">
+        <f t="shared" si="9"/>
+        <v>55.711767935492389</v>
+      </c>
+      <c r="AC74">
+        <f t="shared" si="10"/>
+        <v>111.42353587098478</v>
+      </c>
+      <c r="AD74">
+        <f t="shared" si="11"/>
+        <v>445.69414348393911</v>
+      </c>
+    </row>
+    <row r="75" spans="15:30" x14ac:dyDescent="0.25">
       <c r="R75">
         <v>65</v>
       </c>
       <c r="S75" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.9437417400860517E-4</v>
       </c>
       <c r="T75" s="9">
@@ -24570,20 +26451,48 @@
         <v>5.76</v>
       </c>
       <c r="V75" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>8.5</v>
       </c>
       <c r="W75" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>42.466051448699545</v>
       </c>
-    </row>
-    <row r="76" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="X75" s="25">
+        <f t="shared" si="1"/>
+        <v>9.4004943741740092</v>
+      </c>
+      <c r="Y75">
+        <f t="shared" si="2"/>
+        <v>947728.98856462061</v>
+      </c>
+      <c r="Z75">
+        <f t="shared" si="3"/>
+        <v>4024.6475015438627</v>
+      </c>
+      <c r="AA75">
+        <f t="shared" si="4"/>
+        <v>59632.551647799097</v>
+      </c>
+      <c r="AB75">
+        <f t="shared" si="9"/>
+        <v>49.239091060109786</v>
+      </c>
+      <c r="AC75">
+        <f t="shared" si="10"/>
+        <v>98.478182120219572</v>
+      </c>
+      <c r="AD75">
+        <f t="shared" si="11"/>
+        <v>393.91272848087829</v>
+      </c>
+    </row>
+    <row r="76" spans="15:30" x14ac:dyDescent="0.25">
       <c r="R76">
         <v>66</v>
       </c>
-      <c r="S76" s="11">
-        <f t="shared" si="4"/>
+      <c r="S76" s="24">
+        <f t="shared" si="8"/>
         <v>4.361631501265466E-4</v>
       </c>
       <c r="T76" s="9">
@@ -24593,20 +26502,48 @@
         <v>5.94</v>
       </c>
       <c r="V76" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>8.32</v>
       </c>
       <c r="W76" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>37.484910854400425</v>
       </c>
-    </row>
-    <row r="77" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="X76" s="25">
+        <f t="shared" ref="X76:X111" si="17">($X$5+S76)</f>
+        <v>9.4004361631501272</v>
+      </c>
+      <c r="Y76">
+        <f t="shared" ref="Y76:Y111" si="18">1/(2*3.1415926*SQRT($X$8*X76/1000000000000))</f>
+        <v>947731.92290662474</v>
+      </c>
+      <c r="Z76">
+        <f t="shared" ref="Z76:Z111" si="19">$Z$5-Y76</f>
+        <v>4021.7131595397368</v>
+      </c>
+      <c r="AA76">
+        <f t="shared" ref="AA76:AA111" si="20">$AA$5/Z76</f>
+        <v>59676.061041475841</v>
+      </c>
+      <c r="AB76">
+        <f t="shared" si="9"/>
+        <v>43.509393676744367</v>
+      </c>
+      <c r="AC76">
+        <f t="shared" si="10"/>
+        <v>87.018787353488733</v>
+      </c>
+      <c r="AD76">
+        <f t="shared" si="11"/>
+        <v>348.07514941395493</v>
+      </c>
+    </row>
+    <row r="77" spans="15:30" x14ac:dyDescent="0.25">
       <c r="R77">
         <v>67</v>
       </c>
       <c r="S77" s="11">
-        <f t="shared" ref="S77:S110" si="10">S76/$S$8</f>
+        <f t="shared" ref="S77:S110" si="21">S76/$S$8</f>
         <v>3.8480629355246436E-4</v>
       </c>
       <c r="T77" s="9">
@@ -24616,20 +26553,48 @@
         <v>6.12</v>
       </c>
       <c r="V77" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>8.14</v>
       </c>
       <c r="W77" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>33.088043126867319</v>
       </c>
-    </row>
-    <row r="78" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="X77" s="25">
+        <f t="shared" si="17"/>
+        <v>9.4003848062935536</v>
+      </c>
+      <c r="Y77">
+        <f t="shared" si="18"/>
+        <v>947734.51176160015</v>
+      </c>
+      <c r="Z77">
+        <f t="shared" si="19"/>
+        <v>4019.1243045643205</v>
+      </c>
+      <c r="AA77">
+        <f t="shared" si="20"/>
+        <v>59714.500426733226</v>
+      </c>
+      <c r="AB77">
+        <f t="shared" ref="AB77:AB111" si="22">AA77-AA76</f>
+        <v>38.439385257384856</v>
+      </c>
+      <c r="AC77">
+        <f t="shared" ref="AC77:AC111" si="23">AB77*2</f>
+        <v>76.878770514769712</v>
+      </c>
+      <c r="AD77">
+        <f t="shared" ref="AD77:AD111" si="24">AC77*4</f>
+        <v>307.51508205907885</v>
+      </c>
+    </row>
+    <row r="78" spans="15:30" x14ac:dyDescent="0.25">
       <c r="R78">
         <v>68</v>
       </c>
       <c r="S78" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>3.3949654736908252E-4</v>
       </c>
       <c r="T78" s="9">
@@ -24639,20 +26604,48 @@
         <v>6.3</v>
       </c>
       <c r="V78" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>7.96</v>
       </c>
       <c r="W78" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>29.206914809480196</v>
       </c>
-    </row>
-    <row r="79" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="X78" s="25">
+        <f t="shared" si="17"/>
+        <v>9.4003394965473692</v>
+      </c>
+      <c r="Y78">
+        <f t="shared" si="18"/>
+        <v>947736.79580455692</v>
+      </c>
+      <c r="Z78">
+        <f t="shared" si="19"/>
+        <v>4016.8402616075473</v>
+      </c>
+      <c r="AA78">
+        <f t="shared" si="20"/>
+        <v>59748.455096382531</v>
+      </c>
+      <c r="AB78">
+        <f t="shared" si="22"/>
+        <v>33.954669649305288</v>
+      </c>
+      <c r="AC78">
+        <f t="shared" si="23"/>
+        <v>67.909339298610575</v>
+      </c>
+      <c r="AD78">
+        <f t="shared" si="24"/>
+        <v>271.6373571944423</v>
+      </c>
+    </row>
+    <row r="79" spans="15:30" x14ac:dyDescent="0.25">
       <c r="R79">
         <v>69</v>
       </c>
       <c r="S79" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>2.9952188310509916E-4</v>
       </c>
       <c r="T79" s="9">
@@ -24662,20 +26655,48 @@
         <v>6.48</v>
       </c>
       <c r="V79" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>7.7799999999999994</v>
       </c>
       <c r="W79" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>25.7810312147339</v>
       </c>
-    </row>
-    <row r="80" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="X79" s="25">
+        <f t="shared" si="17"/>
+        <v>9.400299521883106</v>
+      </c>
+      <c r="Y79">
+        <f t="shared" si="18"/>
+        <v>947738.810922259</v>
+      </c>
+      <c r="Z79">
+        <f t="shared" si="19"/>
+        <v>4014.8251439054729</v>
+      </c>
+      <c r="AA79">
+        <f t="shared" si="20"/>
+        <v>59778.443991345761</v>
+      </c>
+      <c r="AB79">
+        <f t="shared" si="22"/>
+        <v>29.988894963229541</v>
+      </c>
+      <c r="AC79">
+        <f t="shared" si="23"/>
+        <v>59.977789926459081</v>
+      </c>
+      <c r="AD79">
+        <f t="shared" si="24"/>
+        <v>239.91115970583633</v>
+      </c>
+    </row>
+    <row r="80" spans="15:30" x14ac:dyDescent="0.25">
       <c r="R80">
         <v>70</v>
       </c>
       <c r="S80" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>2.6425411143075076E-4</v>
       </c>
       <c r="T80" s="9">
@@ -24685,20 +26706,48 @@
         <v>6.66</v>
       </c>
       <c r="V80" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>7.6</v>
       </c>
       <c r="W80" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>22.75699350070866</v>
       </c>
-    </row>
-    <row r="81" spans="18:23" x14ac:dyDescent="0.25">
+      <c r="X80" s="25">
+        <f t="shared" si="17"/>
+        <v>9.4002642541114305</v>
+      </c>
+      <c r="Y80">
+        <f t="shared" si="18"/>
+        <v>947740.58877678192</v>
+      </c>
+      <c r="Z80">
+        <f t="shared" si="19"/>
+        <v>4013.0472893825499</v>
+      </c>
+      <c r="AA80">
+        <f t="shared" si="20"/>
+        <v>59804.926952885857</v>
+      </c>
+      <c r="AB80">
+        <f t="shared" si="22"/>
+        <v>26.482961540095857</v>
+      </c>
+      <c r="AC80">
+        <f t="shared" si="23"/>
+        <v>52.965923080191715</v>
+      </c>
+      <c r="AD80">
+        <f t="shared" si="24"/>
+        <v>211.86369232076686</v>
+      </c>
+    </row>
+    <row r="81" spans="18:30" x14ac:dyDescent="0.25">
       <c r="R81">
         <v>71</v>
       </c>
-      <c r="S81" s="11">
-        <f t="shared" si="10"/>
+      <c r="S81" s="24">
+        <f t="shared" si="21"/>
         <v>2.3313901035922947E-4</v>
       </c>
       <c r="T81" s="9">
@@ -24708,20 +26757,48 @@
         <v>6.84</v>
       </c>
       <c r="V81" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>7.42</v>
       </c>
       <c r="W81" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>20.087666349642376</v>
       </c>
-    </row>
-    <row r="82" spans="18:23" x14ac:dyDescent="0.25">
+      <c r="X81" s="25">
+        <f t="shared" si="17"/>
+        <v>9.4002331390103588</v>
+      </c>
+      <c r="Y81">
+        <f t="shared" si="18"/>
+        <v>947742.15730276261</v>
+      </c>
+      <c r="Z81">
+        <f t="shared" si="19"/>
+        <v>4011.4787634018576</v>
+      </c>
+      <c r="AA81">
+        <f t="shared" si="20"/>
+        <v>59828.311242628297</v>
+      </c>
+      <c r="AB81">
+        <f t="shared" si="22"/>
+        <v>23.38428974244016</v>
+      </c>
+      <c r="AC81">
+        <f t="shared" si="23"/>
+        <v>46.76857948488032</v>
+      </c>
+      <c r="AD81">
+        <f t="shared" si="24"/>
+        <v>187.07431793952128</v>
+      </c>
+    </row>
+    <row r="82" spans="18:30" x14ac:dyDescent="0.25">
       <c r="R82">
         <v>72</v>
       </c>
       <c r="S82" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>2.0568761582173006E-4</v>
       </c>
       <c r="T82" s="9">
@@ -24731,20 +26808,48 @@
         <v>7.02</v>
       </c>
       <c r="V82" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>7.24</v>
       </c>
       <c r="W82" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>17.731443275316394</v>
       </c>
-    </row>
-    <row r="83" spans="18:23" x14ac:dyDescent="0.25">
+      <c r="X82" s="25">
+        <f t="shared" si="17"/>
+        <v>9.4002056876158218</v>
+      </c>
+      <c r="Y82">
+        <f t="shared" si="18"/>
+        <v>947743.54114614602</v>
+      </c>
+      <c r="Z82">
+        <f t="shared" si="19"/>
+        <v>4010.094920018455</v>
+      </c>
+      <c r="AA82">
+        <f t="shared" si="20"/>
+        <v>59848.957390488773</v>
+      </c>
+      <c r="AB82">
+        <f t="shared" si="22"/>
+        <v>20.646147860476049</v>
+      </c>
+      <c r="AC82">
+        <f t="shared" si="23"/>
+        <v>41.292295720952097</v>
+      </c>
+      <c r="AD82">
+        <f t="shared" si="24"/>
+        <v>165.16918288380839</v>
+      </c>
+    </row>
+    <row r="83" spans="18:30" x14ac:dyDescent="0.25">
       <c r="R83">
         <v>73</v>
       </c>
       <c r="S83" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>1.8146853775024083E-4</v>
       </c>
       <c r="T83" s="9">
@@ -24754,20 +26859,48 @@
         <v>7.2</v>
       </c>
       <c r="V83" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>7.06</v>
       </c>
       <c r="W83" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>15.651598107679462</v>
       </c>
-    </row>
-    <row r="84" spans="18:23" x14ac:dyDescent="0.25">
+      <c r="X83" s="25">
+        <f t="shared" si="17"/>
+        <v>9.4001814685377507</v>
+      </c>
+      <c r="Y83">
+        <f t="shared" si="18"/>
+        <v>947744.76205130131</v>
+      </c>
+      <c r="Z83">
+        <f t="shared" si="19"/>
+        <v>4008.8740148631623</v>
+      </c>
+      <c r="AA83">
+        <f t="shared" si="20"/>
+        <v>59867.184428890585</v>
+      </c>
+      <c r="AB83">
+        <f t="shared" si="22"/>
+        <v>18.227038401812024</v>
+      </c>
+      <c r="AC83">
+        <f t="shared" si="23"/>
+        <v>36.454076803624048</v>
+      </c>
+      <c r="AD83">
+        <f t="shared" si="24"/>
+        <v>145.81630721449619</v>
+      </c>
+    </row>
+    <row r="84" spans="18:30" x14ac:dyDescent="0.25">
       <c r="R84">
         <v>74</v>
       </c>
       <c r="S84" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>1.6010118091772625E-4</v>
       </c>
       <c r="T84" s="9">
@@ -24777,20 +26910,48 @@
         <v>7.38</v>
       </c>
       <c r="V84" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>6.88</v>
       </c>
       <c r="W84" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>13.81571254638591</v>
       </c>
-    </row>
-    <row r="85" spans="18:23" x14ac:dyDescent="0.25">
+      <c r="X84" s="25">
+        <f t="shared" si="17"/>
+        <v>9.4001601011809175</v>
+      </c>
+      <c r="Y84">
+        <f t="shared" si="18"/>
+        <v>947745.83920258342</v>
+      </c>
+      <c r="Z84">
+        <f t="shared" si="19"/>
+        <v>4007.7968635810539</v>
+      </c>
+      <c r="AA84">
+        <f t="shared" si="20"/>
+        <v>59883.274569349</v>
+      </c>
+      <c r="AB84">
+        <f t="shared" si="22"/>
+        <v>16.09014045841468</v>
+      </c>
+      <c r="AC84">
+        <f t="shared" si="23"/>
+        <v>32.180280916829361</v>
+      </c>
+      <c r="AD84">
+        <f t="shared" si="24"/>
+        <v>128.72112366731744</v>
+      </c>
+    </row>
+    <row r="85" spans="18:30" x14ac:dyDescent="0.25">
       <c r="R85">
         <v>75</v>
       </c>
       <c r="S85" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>1.4124976400332789E-4</v>
       </c>
       <c r="T85" s="9">
@@ -24800,20 +26961,48 @@
         <v>7.56</v>
       </c>
       <c r="V85" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>6.7</v>
       </c>
       <c r="W85" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>12.195170860585222</v>
       </c>
-    </row>
-    <row r="86" spans="18:23" x14ac:dyDescent="0.25">
+      <c r="X85" s="25">
+        <f t="shared" si="17"/>
+        <v>9.4001412497640029</v>
+      </c>
+      <c r="Y85">
+        <f t="shared" si="18"/>
+        <v>947746.78952569608</v>
+      </c>
+      <c r="Z85">
+        <f t="shared" si="19"/>
+        <v>4006.8465404683957</v>
+      </c>
+      <c r="AA85">
+        <f t="shared" si="20"/>
+        <v>59897.477374300506</v>
+      </c>
+      <c r="AB85">
+        <f t="shared" si="22"/>
+        <v>14.20280495150655</v>
+      </c>
+      <c r="AC85">
+        <f t="shared" si="23"/>
+        <v>28.405609903013101</v>
+      </c>
+      <c r="AD85">
+        <f t="shared" si="24"/>
+        <v>113.6224396120524</v>
+      </c>
+    </row>
+    <row r="86" spans="18:30" x14ac:dyDescent="0.25">
       <c r="R86">
         <v>76</v>
       </c>
-      <c r="S86" s="11">
-        <f t="shared" si="10"/>
+      <c r="S86" s="24">
+        <f t="shared" si="21"/>
         <v>1.2461804289406594E-4</v>
       </c>
       <c r="T86" s="9">
@@ -24823,20 +27012,48 @@
         <v>7.74</v>
       </c>
       <c r="V86" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>6.52</v>
       </c>
       <c r="W86" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>10.764713858914988</v>
       </c>
-    </row>
-    <row r="87" spans="18:23" x14ac:dyDescent="0.25">
+      <c r="X86" s="25">
+        <f t="shared" si="17"/>
+        <v>9.400124618042895</v>
+      </c>
+      <c r="Y86">
+        <f t="shared" si="18"/>
+        <v>947747.62795358687</v>
+      </c>
+      <c r="Z86">
+        <f t="shared" si="19"/>
+        <v>4006.0081125776051</v>
+      </c>
+      <c r="AA86">
+        <f t="shared" si="20"/>
+        <v>59910.013473631145</v>
+      </c>
+      <c r="AB86">
+        <f t="shared" si="22"/>
+        <v>12.536099330638535</v>
+      </c>
+      <c r="AC86">
+        <f t="shared" si="23"/>
+        <v>25.072198661277071</v>
+      </c>
+      <c r="AD86">
+        <f t="shared" si="24"/>
+        <v>100.28879464510828</v>
+      </c>
+    </row>
+    <row r="87" spans="18:30" x14ac:dyDescent="0.25">
       <c r="R87">
         <v>77</v>
       </c>
       <c r="S87" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>1.0994465530138072E-4</v>
       </c>
       <c r="T87" s="9">
@@ -24846,20 +27063,48 @@
         <v>7.92</v>
       </c>
       <c r="V87" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>6.34</v>
       </c>
       <c r="W87" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>9.502045177475793</v>
       </c>
-    </row>
-    <row r="88" spans="18:23" x14ac:dyDescent="0.25">
+      <c r="X87" s="25">
+        <f t="shared" si="17"/>
+        <v>9.400109944655302</v>
+      </c>
+      <c r="Y87">
+        <f t="shared" si="18"/>
+        <v>947748.36766104447</v>
+      </c>
+      <c r="Z87">
+        <f t="shared" si="19"/>
+        <v>4005.2684051200049</v>
+      </c>
+      <c r="AA87">
+        <f t="shared" si="20"/>
+        <v>59921.077871636218</v>
+      </c>
+      <c r="AB87">
+        <f t="shared" si="22"/>
+        <v>11.064398005073599</v>
+      </c>
+      <c r="AC87">
+        <f t="shared" si="23"/>
+        <v>22.128796010147198</v>
+      </c>
+      <c r="AD87">
+        <f t="shared" si="24"/>
+        <v>88.515184040588792</v>
+      </c>
+    </row>
+    <row r="88" spans="18:30" x14ac:dyDescent="0.25">
       <c r="R88">
         <v>78</v>
       </c>
       <c r="S88" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>9.6999013534620525E-5</v>
       </c>
       <c r="T88" s="9">
@@ -24869,20 +27114,48 @@
         <v>8.1</v>
       </c>
       <c r="V88" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>6.16</v>
       </c>
       <c r="W88" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>8.3874837490471208</v>
       </c>
-    </row>
-    <row r="89" spans="18:23" x14ac:dyDescent="0.25">
+      <c r="X88" s="25">
+        <f t="shared" si="17"/>
+        <v>9.4000969990135346</v>
+      </c>
+      <c r="Y88">
+        <f t="shared" si="18"/>
+        <v>947749.02027168416</v>
+      </c>
+      <c r="Z88">
+        <f t="shared" si="19"/>
+        <v>4004.6157944803126</v>
+      </c>
+      <c r="AA88">
+        <f t="shared" si="20"/>
+        <v>59930.842886550941</v>
+      </c>
+      <c r="AB88">
+        <f t="shared" si="22"/>
+        <v>9.7650149147229968</v>
+      </c>
+      <c r="AC88">
+        <f t="shared" si="23"/>
+        <v>19.530029829445994</v>
+      </c>
+      <c r="AD88">
+        <f t="shared" si="24"/>
+        <v>78.120119317783974</v>
+      </c>
+    </row>
+    <row r="89" spans="18:30" x14ac:dyDescent="0.25">
       <c r="R89">
         <v>79</v>
       </c>
       <c r="S89" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>8.5577680887697838E-5</v>
       </c>
       <c r="T89" s="9">
@@ -24892,20 +27165,48 @@
         <v>8.2799999999999994</v>
       </c>
       <c r="V89" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5.98</v>
       </c>
       <c r="W89" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>7.403657036623116</v>
       </c>
-    </row>
-    <row r="90" spans="18:23" x14ac:dyDescent="0.25">
+      <c r="X89" s="25">
+        <f t="shared" si="17"/>
+        <v>9.4000855776808887</v>
+      </c>
+      <c r="Y89">
+        <f t="shared" si="18"/>
+        <v>947749.59604056668</v>
+      </c>
+      <c r="Z89">
+        <f t="shared" si="19"/>
+        <v>4004.0400255977875</v>
+      </c>
+      <c r="AA89">
+        <f t="shared" si="20"/>
+        <v>59939.460761051945</v>
+      </c>
+      <c r="AB89">
+        <f t="shared" si="22"/>
+        <v>8.6178745010038256</v>
+      </c>
+      <c r="AC89">
+        <f t="shared" si="23"/>
+        <v>17.235749002007651</v>
+      </c>
+      <c r="AD89">
+        <f t="shared" si="24"/>
+        <v>68.942996008030605</v>
+      </c>
+    </row>
+    <row r="90" spans="18:30" x14ac:dyDescent="0.25">
       <c r="R90">
         <v>80</v>
       </c>
       <c r="S90" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>7.5501174694964855E-5</v>
       </c>
       <c r="T90" s="9">
@@ -24915,20 +27216,48 @@
         <v>8.4600000000000009</v>
       </c>
       <c r="V90" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5.7999999999999989</v>
       </c>
       <c r="W90" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>6.5352302497355126</v>
       </c>
-    </row>
-    <row r="91" spans="18:23" x14ac:dyDescent="0.25">
+      <c r="X90" s="25">
+        <f t="shared" si="17"/>
+        <v>9.4000755011746957</v>
+      </c>
+      <c r="Y90">
+        <f t="shared" si="18"/>
+        <v>947750.1040153224</v>
+      </c>
+      <c r="Z90">
+        <f t="shared" si="19"/>
+        <v>4003.53205084207</v>
+      </c>
+      <c r="AA90">
+        <f t="shared" si="20"/>
+        <v>59947.065978782506</v>
+      </c>
+      <c r="AB90">
+        <f t="shared" si="22"/>
+        <v>7.6052177305609803</v>
+      </c>
+      <c r="AC90">
+        <f t="shared" si="23"/>
+        <v>15.210435461121961</v>
+      </c>
+      <c r="AD90">
+        <f t="shared" si="24"/>
+        <v>60.841741844487842</v>
+      </c>
+    </row>
+    <row r="91" spans="18:30" x14ac:dyDescent="0.25">
       <c r="R91">
         <v>81</v>
       </c>
-      <c r="S91" s="11">
-        <f t="shared" si="10"/>
+      <c r="S91" s="24">
+        <f t="shared" si="21"/>
         <v>6.6611145817332631E-5</v>
       </c>
       <c r="T91" s="9">
@@ -24938,20 +27267,48 @@
         <v>8.64</v>
       </c>
       <c r="V91" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5.6199999999999992</v>
       </c>
       <c r="W91" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>5.7686673228908916</v>
       </c>
-    </row>
-    <row r="92" spans="18:23" x14ac:dyDescent="0.25">
+      <c r="X91" s="25">
+        <f t="shared" si="17"/>
+        <v>9.4000666111458173</v>
+      </c>
+      <c r="Y91">
+        <f t="shared" si="18"/>
+        <v>947750.55217830639</v>
+      </c>
+      <c r="Z91">
+        <f t="shared" si="19"/>
+        <v>4003.0838878580835</v>
+      </c>
+      <c r="AA91">
+        <f t="shared" si="20"/>
+        <v>59953.777318520297</v>
+      </c>
+      <c r="AB91">
+        <f t="shared" si="22"/>
+        <v>6.7113397377906949</v>
+      </c>
+      <c r="AC91">
+        <f t="shared" si="23"/>
+        <v>13.42267947558139</v>
+      </c>
+      <c r="AD91">
+        <f t="shared" si="24"/>
+        <v>53.690717902325559</v>
+      </c>
+    </row>
+    <row r="92" spans="18:30" x14ac:dyDescent="0.25">
       <c r="R92">
         <v>82</v>
       </c>
       <c r="S92" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>5.8767890235141675E-5</v>
       </c>
       <c r="T92" s="9">
@@ -24961,20 +27318,48 @@
         <v>8.82</v>
       </c>
       <c r="V92" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5.4399999999999995</v>
       </c>
       <c r="W92" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>5.0920199305197613</v>
       </c>
-    </row>
-    <row r="93" spans="18:23" x14ac:dyDescent="0.25">
+      <c r="X92" s="25">
+        <f t="shared" si="17"/>
+        <v>9.4000587678902363</v>
+      </c>
+      <c r="Y92">
+        <f t="shared" si="18"/>
+        <v>947750.94757201825</v>
+      </c>
+      <c r="Z92">
+        <f t="shared" si="19"/>
+        <v>4002.6884941462195</v>
+      </c>
+      <c r="AA92">
+        <f t="shared" si="20"/>
+        <v>59959.699674603937</v>
+      </c>
+      <c r="AB92">
+        <f t="shared" si="22"/>
+        <v>5.9223560836398974</v>
+      </c>
+      <c r="AC92">
+        <f t="shared" si="23"/>
+        <v>11.844712167279795</v>
+      </c>
+      <c r="AD92">
+        <f t="shared" si="24"/>
+        <v>47.378848669119179</v>
+      </c>
+    </row>
+    <row r="93" spans="18:30" x14ac:dyDescent="0.25">
       <c r="R93">
         <v>83</v>
       </c>
       <c r="S93" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>5.184815364324502E-5</v>
       </c>
       <c r="T93" s="9">
@@ -24984,20 +27369,48 @@
         <v>9</v>
       </c>
       <c r="V93" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5.26</v>
       </c>
       <c r="W93" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>4.4947412498415389</v>
       </c>
-    </row>
-    <row r="94" spans="18:23" x14ac:dyDescent="0.25">
+      <c r="X93" s="25">
+        <f t="shared" si="17"/>
+        <v>9.4000518481536428</v>
+      </c>
+      <c r="Y93">
+        <f t="shared" si="18"/>
+        <v>947751.29640975944</v>
+      </c>
+      <c r="Z93">
+        <f t="shared" si="19"/>
+        <v>4002.3396564050345</v>
+      </c>
+      <c r="AA93">
+        <f t="shared" si="20"/>
+        <v>59964.925669395045</v>
+      </c>
+      <c r="AB93">
+        <f t="shared" si="22"/>
+        <v>5.2259947911079507</v>
+      </c>
+      <c r="AC93">
+        <f t="shared" si="23"/>
+        <v>10.451989582215901</v>
+      </c>
+      <c r="AD93">
+        <f t="shared" si="24"/>
+        <v>41.807958328863606</v>
+      </c>
+    </row>
+    <row r="94" spans="18:30" x14ac:dyDescent="0.25">
       <c r="R94">
         <v>84</v>
       </c>
       <c r="S94" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>4.5743194548203291E-5</v>
       </c>
       <c r="T94" s="9">
@@ -25007,20 +27420,48 @@
         <v>9.18</v>
       </c>
       <c r="V94" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5.08</v>
       </c>
       <c r="W94" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>3.9675215687863314</v>
       </c>
-    </row>
-    <row r="95" spans="18:23" x14ac:dyDescent="0.25">
+      <c r="X94" s="25">
+        <f t="shared" si="17"/>
+        <v>9.4000457431945481</v>
+      </c>
+      <c r="Y94">
+        <f t="shared" si="18"/>
+        <v>947751.60417325946</v>
+      </c>
+      <c r="Z94">
+        <f t="shared" si="19"/>
+        <v>4002.0318929050118</v>
+      </c>
+      <c r="AA94">
+        <f t="shared" si="20"/>
+        <v>59969.537080772185</v>
+      </c>
+      <c r="AB94">
+        <f t="shared" si="22"/>
+        <v>4.6114113771400298</v>
+      </c>
+      <c r="AC94">
+        <f t="shared" si="23"/>
+        <v>9.2228227542800596</v>
+      </c>
+      <c r="AD94">
+        <f t="shared" si="24"/>
+        <v>36.891291017120238</v>
+      </c>
+    </row>
+    <row r="95" spans="18:30" x14ac:dyDescent="0.25">
       <c r="R95">
         <v>85</v>
       </c>
       <c r="S95" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>4.0357075429770611E-5</v>
       </c>
       <c r="T95" s="9">
@@ -25030,20 +27471,48 @@
         <v>9.36</v>
       </c>
       <c r="V95" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="W95" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>3.5021431766154834</v>
       </c>
-    </row>
-    <row r="96" spans="18:23" x14ac:dyDescent="0.25">
+      <c r="X95" s="25">
+        <f t="shared" si="17"/>
+        <v>9.4000403570754294</v>
+      </c>
+      <c r="Y95">
+        <f t="shared" si="18"/>
+        <v>947751.87569881196</v>
+      </c>
+      <c r="Z95">
+        <f t="shared" si="19"/>
+        <v>4001.7603673525155</v>
+      </c>
+      <c r="AA95">
+        <f t="shared" si="20"/>
+        <v>59973.606105449835</v>
+      </c>
+      <c r="AB95">
+        <f t="shared" si="22"/>
+        <v>4.0690246776503045</v>
+      </c>
+      <c r="AC95">
+        <f t="shared" si="23"/>
+        <v>8.138049355300609</v>
+      </c>
+      <c r="AD95">
+        <f t="shared" si="24"/>
+        <v>32.552197421202436</v>
+      </c>
+    </row>
+    <row r="96" spans="18:30" x14ac:dyDescent="0.25">
       <c r="R96">
         <v>86</v>
       </c>
-      <c r="S96" s="11">
-        <f t="shared" si="10"/>
+      <c r="S96" s="24">
+        <f t="shared" si="21"/>
         <v>3.5605155112809386E-5</v>
       </c>
       <c r="T96" s="9">
@@ -25053,20 +27522,48 @@
         <v>9.5399999999999991</v>
       </c>
       <c r="V96" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>4.7200000000000006</v>
       </c>
       <c r="W96" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>3.0913522754374014</v>
       </c>
-    </row>
-    <row r="97" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="X96" s="25">
+        <f t="shared" si="17"/>
+        <v>9.4000356051551126</v>
+      </c>
+      <c r="Y96">
+        <f t="shared" si="18"/>
+        <v>947752.11525326769</v>
+      </c>
+      <c r="Z96">
+        <f t="shared" si="19"/>
+        <v>4001.5208128967788</v>
+      </c>
+      <c r="AA96">
+        <f t="shared" si="20"/>
+        <v>59977.196476521465</v>
+      </c>
+      <c r="AB96">
+        <f t="shared" si="22"/>
+        <v>3.5903710716302157</v>
+      </c>
+      <c r="AC96">
+        <f t="shared" si="23"/>
+        <v>7.1807421432604315</v>
+      </c>
+      <c r="AD96">
+        <f t="shared" si="24"/>
+        <v>28.722968573041726</v>
+      </c>
+    </row>
+    <row r="97" spans="15:30" x14ac:dyDescent="0.25">
       <c r="R97">
         <v>87</v>
       </c>
       <c r="S97" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>3.1412758657730662E-5</v>
       </c>
       <c r="T97" s="9">
@@ -25076,20 +27573,48 @@
         <v>9.7200000000000006</v>
       </c>
       <c r="V97" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>4.5399999999999991</v>
       </c>
       <c r="W97" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2.7287459161184984</v>
       </c>
-    </row>
-    <row r="98" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="X97" s="25">
+        <f t="shared" si="17"/>
+        <v>9.4000314127586577</v>
+      </c>
+      <c r="Y97">
+        <f t="shared" si="18"/>
+        <v>947752.32660108071</v>
+      </c>
+      <c r="Z97">
+        <f t="shared" si="19"/>
+        <v>4001.3094650837593</v>
+      </c>
+      <c r="AA97">
+        <f t="shared" si="20"/>
+        <v>59980.364451759815</v>
+      </c>
+      <c r="AB97">
+        <f t="shared" si="22"/>
+        <v>3.1679752383497544</v>
+      </c>
+      <c r="AC97">
+        <f t="shared" si="23"/>
+        <v>6.3359504766995087</v>
+      </c>
+      <c r="AD97">
+        <f t="shared" si="24"/>
+        <v>25.343801906798035</v>
+      </c>
+    </row>
+    <row r="98" spans="15:30" x14ac:dyDescent="0.25">
       <c r="R98">
         <v>88</v>
       </c>
       <c r="S98" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>2.7714003867204987E-5</v>
       </c>
       <c r="T98" s="9">
@@ -25099,20 +27624,48 @@
         <v>9.9</v>
       </c>
       <c r="V98" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>4.3599999999999994</v>
       </c>
       <c r="W98" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2.4086721962736775</v>
       </c>
-    </row>
-    <row r="99" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="X98" s="25">
+        <f t="shared" si="17"/>
+        <v>9.4000277140038673</v>
+      </c>
+      <c r="Y98">
+        <f t="shared" si="18"/>
+        <v>947752.51306346257</v>
+      </c>
+      <c r="Z98">
+        <f t="shared" si="19"/>
+        <v>4001.1230027019046</v>
+      </c>
+      <c r="AA98">
+        <f t="shared" si="20"/>
+        <v>59983.15968740057</v>
+      </c>
+      <c r="AB98">
+        <f t="shared" si="22"/>
+        <v>2.7952356407549814</v>
+      </c>
+      <c r="AC98">
+        <f t="shared" si="23"/>
+        <v>5.5904712815099629</v>
+      </c>
+      <c r="AD98">
+        <f t="shared" si="24"/>
+        <v>22.361885126039851</v>
+      </c>
+    </row>
+    <row r="99" spans="15:30" x14ac:dyDescent="0.25">
       <c r="R99">
         <v>89</v>
       </c>
       <c r="S99" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>2.4450765968064137E-5</v>
       </c>
       <c r="T99" s="9">
@@ -25122,20 +27675,48 @@
         <v>10.08</v>
       </c>
       <c r="V99" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>4.18</v>
       </c>
       <c r="W99" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2.1261421647327765</v>
       </c>
-    </row>
-    <row r="100" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="X99" s="25">
+        <f t="shared" si="17"/>
+        <v>9.4000244507659687</v>
+      </c>
+      <c r="Y99">
+        <f t="shared" si="18"/>
+        <v>947752.67757056933</v>
+      </c>
+      <c r="Z99">
+        <f t="shared" si="19"/>
+        <v>4000.9584955951432</v>
+      </c>
+      <c r="AA99">
+        <f t="shared" si="20"/>
+        <v>59985.626010424276</v>
+      </c>
+      <c r="AB99">
+        <f t="shared" si="22"/>
+        <v>2.4663230237056268</v>
+      </c>
+      <c r="AC99">
+        <f t="shared" si="23"/>
+        <v>4.9326460474112537</v>
+      </c>
+      <c r="AD99">
+        <f t="shared" si="24"/>
+        <v>19.730584189645015</v>
+      </c>
+    </row>
+    <row r="100" spans="15:30" x14ac:dyDescent="0.25">
       <c r="R100">
         <v>90</v>
       </c>
       <c r="S100" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>2.1571764198694137E-5</v>
       </c>
       <c r="T100" s="9">
@@ -25145,20 +27726,48 @@
         <v>10.26</v>
       </c>
       <c r="V100" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="W100" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.8767520593495224</v>
       </c>
-    </row>
-    <row r="101" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="X100" s="25">
+        <f t="shared" si="17"/>
+        <v>9.4000215717641993</v>
+      </c>
+      <c r="Y100">
+        <f t="shared" si="18"/>
+        <v>947752.82270754629</v>
+      </c>
+      <c r="Z100">
+        <f t="shared" si="19"/>
+        <v>4000.8133586181793</v>
+      </c>
+      <c r="AA100">
+        <f t="shared" si="20"/>
+        <v>59987.802101043868</v>
+      </c>
+      <c r="AB100">
+        <f t="shared" si="22"/>
+        <v>2.1760906195922871</v>
+      </c>
+      <c r="AC100">
+        <f t="shared" si="23"/>
+        <v>4.3521812391845742</v>
+      </c>
+      <c r="AD100">
+        <f t="shared" si="24"/>
+        <v>17.408724956738297</v>
+      </c>
+    </row>
+    <row r="101" spans="15:30" x14ac:dyDescent="0.25">
       <c r="R101">
         <v>91</v>
       </c>
-      <c r="S101" s="11">
-        <f t="shared" si="10"/>
+      <c r="S101" s="24">
+        <f t="shared" si="21"/>
         <v>1.9031755947926443E-5</v>
       </c>
       <c r="T101" s="9">
@@ -25168,20 +27777,48 @@
         <v>10.44</v>
       </c>
       <c r="V101" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.8200000000000003</v>
       </c>
       <c r="W101" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.6566146660824739</v>
       </c>
-    </row>
-    <row r="102" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="X101" s="25">
+        <f t="shared" si="17"/>
+        <v>9.4000190317559476</v>
+      </c>
+      <c r="Y101">
+        <f t="shared" si="18"/>
+        <v>947752.95075515017</v>
+      </c>
+      <c r="Z101">
+        <f t="shared" si="19"/>
+        <v>4000.6853110142983</v>
+      </c>
+      <c r="AA101">
+        <f t="shared" si="20"/>
+        <v>59989.722095675781</v>
+      </c>
+      <c r="AB101">
+        <f t="shared" si="22"/>
+        <v>1.9199946319131413</v>
+      </c>
+      <c r="AC101">
+        <f t="shared" si="23"/>
+        <v>3.8399892638262827</v>
+      </c>
+      <c r="AD101">
+        <f t="shared" si="24"/>
+        <v>15.359957055305131</v>
+      </c>
+    </row>
+    <row r="102" spans="15:30" x14ac:dyDescent="0.25">
       <c r="R102">
         <v>92</v>
       </c>
       <c r="S102" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>1.6790825781572378E-5</v>
       </c>
       <c r="T102" s="9">
@@ -25191,15 +27828,43 @@
         <v>10.62</v>
       </c>
       <c r="V102" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.6400000000000006</v>
       </c>
       <c r="W102" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.4622987294500618</v>
       </c>
-    </row>
-    <row r="103" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="X102" s="25">
+        <f t="shared" si="17"/>
+        <v>9.4000167908257826</v>
+      </c>
+      <c r="Y102">
+        <f t="shared" si="18"/>
+        <v>947753.06372558919</v>
+      </c>
+      <c r="Z102">
+        <f t="shared" si="19"/>
+        <v>4000.5723405752797</v>
+      </c>
+      <c r="AA102">
+        <f t="shared" si="20"/>
+        <v>59991.416119596564</v>
+      </c>
+      <c r="AB102">
+        <f t="shared" si="22"/>
+        <v>1.6940239207833656</v>
+      </c>
+      <c r="AC102">
+        <f t="shared" si="23"/>
+        <v>3.3880478415667312</v>
+      </c>
+      <c r="AD102">
+        <f t="shared" si="24"/>
+        <v>13.552191366266925</v>
+      </c>
+    </row>
+    <row r="103" spans="15:30" x14ac:dyDescent="0.25">
       <c r="O103">
         <f>220*4168</f>
         <v>916960</v>
@@ -25208,7 +27873,7 @@
         <v>93</v>
       </c>
       <c r="S103" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>1.4813758183875453E-5</v>
       </c>
       <c r="T103" s="9">
@@ -25218,15 +27883,43 @@
         <v>10.8</v>
       </c>
       <c r="V103" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.4599999999999991</v>
       </c>
       <c r="W103" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.2907754699575733</v>
       </c>
-    </row>
-    <row r="104" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="X103" s="25">
+        <f t="shared" si="17"/>
+        <v>9.4000148137581849</v>
+      </c>
+      <c r="Y103">
+        <f t="shared" si="18"/>
+        <v>947753.16339414357</v>
+      </c>
+      <c r="Z103">
+        <f t="shared" si="19"/>
+        <v>4000.4726720209001</v>
+      </c>
+      <c r="AA103">
+        <f t="shared" si="20"/>
+        <v>59992.910757408157</v>
+      </c>
+      <c r="AB103">
+        <f t="shared" si="22"/>
+        <v>1.4946378115928383</v>
+      </c>
+      <c r="AC103">
+        <f t="shared" si="23"/>
+        <v>2.9892756231856765</v>
+      </c>
+      <c r="AD103">
+        <f t="shared" si="24"/>
+        <v>11.957102492742706</v>
+      </c>
+    </row>
+    <row r="104" spans="15:30" x14ac:dyDescent="0.25">
       <c r="O104">
         <f>916960*0.0218</f>
         <v>19989.727999999999</v>
@@ -25235,7 +27928,7 @@
         <v>94</v>
       </c>
       <c r="S104" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>1.3069484156709939E-5</v>
       </c>
       <c r="T104" s="9">
@@ -25245,20 +27938,48 @@
         <v>10.98</v>
       </c>
       <c r="V104" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.2799999999999994</v>
       </c>
       <c r="W104" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.1393713748700254</v>
       </c>
-    </row>
-    <row r="105" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="X104" s="25">
+        <f t="shared" si="17"/>
+        <v>9.4000130694841566</v>
+      </c>
+      <c r="Y104">
+        <f t="shared" si="18"/>
+        <v>947753.25132706121</v>
+      </c>
+      <c r="Z104">
+        <f t="shared" si="19"/>
+        <v>4000.3847391032614</v>
+      </c>
+      <c r="AA104">
+        <f t="shared" si="20"/>
+        <v>59994.22946848836</v>
+      </c>
+      <c r="AB104">
+        <f t="shared" si="22"/>
+        <v>1.3187110802027746</v>
+      </c>
+      <c r="AC104">
+        <f t="shared" si="23"/>
+        <v>2.6374221604055492</v>
+      </c>
+      <c r="AD104">
+        <f t="shared" si="24"/>
+        <v>10.549688641622197</v>
+      </c>
+    </row>
+    <row r="105" spans="15:30" x14ac:dyDescent="0.25">
       <c r="R105">
         <v>95</v>
       </c>
       <c r="S105" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>1.1530592980005416E-5</v>
       </c>
       <c r="T105" s="9">
@@ -25268,20 +27989,48 @@
         <v>11.16</v>
       </c>
       <c r="V105" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.0999999999999996</v>
       </c>
       <c r="W105" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.005726526485577</v>
       </c>
-    </row>
-    <row r="106" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="X105" s="25">
+        <f t="shared" si="17"/>
+        <v>9.4000115305929803</v>
+      </c>
+      <c r="Y105">
+        <f t="shared" si="18"/>
+        <v>947753.32890617126</v>
+      </c>
+      <c r="Z105">
+        <f t="shared" si="19"/>
+        <v>4000.3071599932155</v>
+      </c>
+      <c r="AA105">
+        <f t="shared" si="20"/>
+        <v>59995.392953876835</v>
+      </c>
+      <c r="AB105">
+        <f t="shared" si="22"/>
+        <v>1.1634853884752374</v>
+      </c>
+      <c r="AC105">
+        <f t="shared" si="23"/>
+        <v>2.3269707769504748</v>
+      </c>
+      <c r="AD105">
+        <f t="shared" si="24"/>
+        <v>9.3078831078018993</v>
+      </c>
+    </row>
+    <row r="106" spans="15:30" x14ac:dyDescent="0.25">
       <c r="R106">
         <v>96</v>
       </c>
       <c r="S106" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>1.0172901460865282E-5</v>
       </c>
       <c r="T106" s="9">
@@ -25291,20 +28040,48 @@
         <v>11.34</v>
       </c>
       <c r="V106" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>2.92</v>
       </c>
       <c r="W106" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0.88775781837781143</v>
       </c>
-    </row>
-    <row r="107" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="X106" s="25">
+        <f t="shared" si="17"/>
+        <v>9.400010172901462</v>
+      </c>
+      <c r="Y106">
+        <f t="shared" si="18"/>
+        <v>947753.39735059754</v>
+      </c>
+      <c r="Z106">
+        <f t="shared" si="19"/>
+        <v>4000.2387155669276</v>
+      </c>
+      <c r="AA106">
+        <f t="shared" si="20"/>
+        <v>59996.419480177545</v>
+      </c>
+      <c r="AB106">
+        <f t="shared" si="22"/>
+        <v>1.02652630070952</v>
+      </c>
+      <c r="AC106">
+        <f t="shared" si="23"/>
+        <v>2.05305260141904</v>
+      </c>
+      <c r="AD106">
+        <f t="shared" si="24"/>
+        <v>8.21221040567616</v>
+      </c>
+    </row>
+    <row r="107" spans="15:30" x14ac:dyDescent="0.25">
       <c r="R107">
         <v>97</v>
       </c>
       <c r="S107" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>8.9750739022639908E-6</v>
       </c>
       <c r="T107" s="9">
@@ -25314,20 +28091,48 @@
         <v>11.52</v>
       </c>
       <c r="V107" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>2.74</v>
       </c>
       <c r="W107" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0.78362648626254838</v>
       </c>
-    </row>
-    <row r="108" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="X107" s="25">
+        <f t="shared" si="17"/>
+        <v>9.4000089750739022</v>
+      </c>
+      <c r="Y107">
+        <f t="shared" si="18"/>
+        <v>947753.45773591776</v>
+      </c>
+      <c r="Z107">
+        <f t="shared" si="19"/>
+        <v>4000.1783302467084</v>
+      </c>
+      <c r="AA107">
+        <f t="shared" si="20"/>
+        <v>59997.325165550348</v>
+      </c>
+      <c r="AB107">
+        <f t="shared" si="22"/>
+        <v>0.90568537280341843</v>
+      </c>
+      <c r="AC107">
+        <f t="shared" si="23"/>
+        <v>1.8113707456068369</v>
+      </c>
+      <c r="AD107">
+        <f t="shared" si="24"/>
+        <v>7.2454829824273475</v>
+      </c>
+    </row>
+    <row r="108" spans="15:30" x14ac:dyDescent="0.25">
       <c r="R108">
         <v>98</v>
       </c>
       <c r="S108" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>7.9182868192501515E-6</v>
       </c>
       <c r="T108" s="9">
@@ -25337,20 +28142,48 @@
         <v>11.7</v>
       </c>
       <c r="V108" s="9">
-        <f t="shared" ref="V108:V111" si="11">14.26-U108</f>
+        <f t="shared" ref="V108:V111" si="25">14.26-U108</f>
         <v>2.5600000000000005</v>
       </c>
       <c r="W108" s="9">
-        <f t="shared" ref="W108:W111" si="12">2^V108-2^V109</f>
+        <f t="shared" ref="W108:W111" si="26">2^V108-2^V109</f>
         <v>0.6917094473966765</v>
       </c>
-    </row>
-    <row r="109" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="X108" s="25">
+        <f t="shared" si="17"/>
+        <v>9.4000079182868195</v>
+      </c>
+      <c r="Y108">
+        <f t="shared" si="18"/>
+        <v>947753.51101106359</v>
+      </c>
+      <c r="Z108">
+        <f t="shared" si="19"/>
+        <v>4000.1250551008852</v>
+      </c>
+      <c r="AA108">
+        <f t="shared" si="20"/>
+        <v>59998.124232130307</v>
+      </c>
+      <c r="AB108">
+        <f t="shared" si="22"/>
+        <v>0.79906657995888963</v>
+      </c>
+      <c r="AC108">
+        <f t="shared" si="23"/>
+        <v>1.5981331599177793</v>
+      </c>
+      <c r="AD108">
+        <f t="shared" si="24"/>
+        <v>6.3925326396711171</v>
+      </c>
+    </row>
+    <row r="109" spans="15:30" x14ac:dyDescent="0.25">
       <c r="R109">
         <v>99</v>
       </c>
       <c r="S109" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>6.9859331337756002E-6</v>
       </c>
       <c r="T109" s="9">
@@ -25360,20 +28193,48 @@
         <v>11.88</v>
       </c>
       <c r="V109" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>2.379999999999999</v>
       </c>
       <c r="W109" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.6105740017795922</v>
       </c>
-    </row>
-    <row r="110" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="X109" s="25">
+        <f t="shared" si="17"/>
+        <v>9.4000069859331337</v>
+      </c>
+      <c r="Y109">
+        <f t="shared" si="18"/>
+        <v>947753.55801323382</v>
+      </c>
+      <c r="Z109">
+        <f t="shared" si="19"/>
+        <v>4000.0780529306503</v>
+      </c>
+      <c r="AA109">
+        <f t="shared" si="20"/>
+        <v>59998.829228885777</v>
+      </c>
+      <c r="AB109">
+        <f t="shared" si="22"/>
+        <v>0.70499675547034713</v>
+      </c>
+      <c r="AC109">
+        <f t="shared" si="23"/>
+        <v>1.4099935109406943</v>
+      </c>
+      <c r="AD109">
+        <f t="shared" si="24"/>
+        <v>5.639974043762777</v>
+      </c>
+    </row>
+    <row r="110" spans="15:30" x14ac:dyDescent="0.25">
       <c r="R110">
         <v>100</v>
       </c>
       <c r="S110" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>6.163361199664824E-6</v>
       </c>
       <c r="T110" s="9">
@@ -25383,20 +28244,48 @@
         <v>12.06</v>
       </c>
       <c r="V110" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>2.1999999999999993</v>
       </c>
       <c r="W110">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="X110" s="25">
+        <f t="shared" si="17"/>
+        <v>9.4000061633611995</v>
+      </c>
+      <c r="Y110">
+        <f t="shared" si="18"/>
+        <v>947753.59948105027</v>
+      </c>
+      <c r="Z110">
+        <f t="shared" si="19"/>
+        <v>4000.0365851141978</v>
+      </c>
+      <c r="AA110">
+        <f t="shared" si="20"/>
+        <v>59999.45122830625</v>
+      </c>
+      <c r="AB110">
+        <f t="shared" si="22"/>
+        <v>0.62199942047300283</v>
+      </c>
+      <c r="AC110">
+        <f t="shared" si="23"/>
+        <v>1.2439988409460057</v>
+      </c>
+      <c r="AD110">
+        <f t="shared" si="24"/>
+        <v>4.9759953637840226</v>
+      </c>
+    </row>
+    <row r="111" spans="15:30" x14ac:dyDescent="0.25">
       <c r="R111">
         <v>101</v>
       </c>
       <c r="S111" s="11">
-        <f t="shared" ref="S111" si="13">S110/$S$8</f>
+        <f t="shared" ref="S111" si="27">S110/$S$8</f>
         <v>5.4376445565838747E-6</v>
       </c>
       <c r="T111" s="9">
@@ -25406,12 +28295,40 @@
         <v>12.06</v>
       </c>
       <c r="V111" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>2.1999999999999993</v>
       </c>
       <c r="W111">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>3.5947934199881377</v>
+      </c>
+      <c r="X111" s="25">
+        <f t="shared" si="17"/>
+        <v>9.4000054376445572</v>
+      </c>
+      <c r="Y111">
+        <f t="shared" si="18"/>
+        <v>947753.63606616447</v>
+      </c>
+      <c r="Z111">
+        <f t="shared" si="19"/>
+        <v>4000</v>
+      </c>
+      <c r="AA111">
+        <f t="shared" si="20"/>
+        <v>60000</v>
+      </c>
+      <c r="AB111">
+        <f t="shared" si="22"/>
+        <v>0.54877169374958612</v>
+      </c>
+      <c r="AC111">
+        <f t="shared" si="23"/>
+        <v>1.0975433874991722</v>
+      </c>
+      <c r="AD111">
+        <f t="shared" si="24"/>
+        <v>4.390173549996689</v>
       </c>
     </row>
   </sheetData>
@@ -25424,8 +28341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AL747"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q158" sqref="Q158"/>
+    <sheetView topLeftCell="A158" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I178" sqref="I178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28945,11 +31862,11 @@
         <f t="shared" si="18"/>
         <v>76</v>
       </c>
-      <c r="H79" s="21">
+      <c r="H79" s="22">
         <f t="shared" si="19"/>
         <v>3.1666666666666667E-7</v>
       </c>
-      <c r="I79" s="21">
+      <c r="I79" s="22">
         <f t="shared" si="20"/>
         <v>6.3333333333333334E-7</v>
       </c>
@@ -29035,11 +31952,11 @@
         <f t="shared" si="18"/>
         <v>77</v>
       </c>
-      <c r="H82" s="22">
+      <c r="H82" s="23">
         <f t="shared" si="19"/>
         <v>3.2083333333333337E-7</v>
       </c>
-      <c r="I82" s="22">
+      <c r="I82" s="23">
         <f t="shared" si="20"/>
         <v>6.4583333333333333E-7</v>
       </c>
@@ -31016,7 +33933,7 @@
         <f t="shared" si="19"/>
         <v>4.0833333333333332E-7</v>
       </c>
-      <c r="I124" s="21">
+      <c r="I124" s="22">
         <f t="shared" si="20"/>
         <v>8.2083333333333334E-7</v>
       </c>
@@ -40356,36 +43273,36 @@
         <f t="shared" si="46"/>
         <v>1.7916666666666667E-6</v>
       </c>
-      <c r="N357" s="19" t="s">
+      <c r="N357" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="O357" s="19" t="s">
+      <c r="O357" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="P357" s="19" t="s">
+      <c r="P357" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="Q357" s="19" t="s">
+      <c r="Q357" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="R357" s="19" t="s">
+      <c r="R357" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="S357" s="19">
+      <c r="S357" s="20">
         <v>1.766</v>
       </c>
-      <c r="T357" s="19">
+      <c r="T357" s="20">
         <v>2.5266000000000002</v>
       </c>
-      <c r="U357" s="19">
+      <c r="U357" s="20">
         <f>T357-S357</f>
         <v>0.76060000000000016</v>
       </c>
-      <c r="V357" s="19">
+      <c r="V357" s="20">
         <f>1/U357</f>
         <v>1.3147515119642386</v>
       </c>
-      <c r="W357" s="20" t="s">
+      <c r="W357" s="21" t="s">
         <v>169</v>
       </c>
     </row>

--- a/teensy4theremin/kicad/teensy4_pins_layout.xlsx
+++ b/teensy4theremin/kicad/teensy4_pins_layout.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18765" windowHeight="8055" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18765" windowHeight="8055" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22566,8 +22566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:AD111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I79" workbookViewId="0">
-      <selection activeCell="AE100" sqref="AE100"/>
+    <sheetView topLeftCell="I67" workbookViewId="0">
+      <selection activeCell="Q90" sqref="Q90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22579,7 +22579,7 @@
     <col min="12" max="12" width="15.140625" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
     <col min="15" max="15" width="13.28515625" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
     <col min="19" max="19" width="13.5703125" customWidth="1"/>
     <col min="23" max="23" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -26742,7 +26742,7 @@
         <v>211.86369232076686</v>
       </c>
     </row>
-    <row r="81" spans="18:30" x14ac:dyDescent="0.25">
+    <row r="81" spans="17:30" x14ac:dyDescent="0.25">
       <c r="R81">
         <v>71</v>
       </c>
@@ -26793,7 +26793,7 @@
         <v>187.07431793952128</v>
       </c>
     </row>
-    <row r="82" spans="18:30" x14ac:dyDescent="0.25">
+    <row r="82" spans="17:30" x14ac:dyDescent="0.25">
       <c r="R82">
         <v>72</v>
       </c>
@@ -26844,7 +26844,7 @@
         <v>165.16918288380839</v>
       </c>
     </row>
-    <row r="83" spans="18:30" x14ac:dyDescent="0.25">
+    <row r="83" spans="17:30" x14ac:dyDescent="0.25">
       <c r="R83">
         <v>73</v>
       </c>
@@ -26895,7 +26895,7 @@
         <v>145.81630721449619</v>
       </c>
     </row>
-    <row r="84" spans="18:30" x14ac:dyDescent="0.25">
+    <row r="84" spans="17:30" x14ac:dyDescent="0.25">
       <c r="R84">
         <v>74</v>
       </c>
@@ -26946,7 +26946,7 @@
         <v>128.72112366731744</v>
       </c>
     </row>
-    <row r="85" spans="18:30" x14ac:dyDescent="0.25">
+    <row r="85" spans="17:30" x14ac:dyDescent="0.25">
       <c r="R85">
         <v>75</v>
       </c>
@@ -26997,7 +26997,7 @@
         <v>113.6224396120524</v>
       </c>
     </row>
-    <row r="86" spans="18:30" x14ac:dyDescent="0.25">
+    <row r="86" spans="17:30" x14ac:dyDescent="0.25">
       <c r="R86">
         <v>76</v>
       </c>
@@ -27048,7 +27048,7 @@
         <v>100.28879464510828</v>
       </c>
     </row>
-    <row r="87" spans="18:30" x14ac:dyDescent="0.25">
+    <row r="87" spans="17:30" x14ac:dyDescent="0.25">
       <c r="R87">
         <v>77</v>
       </c>
@@ -27099,7 +27099,7 @@
         <v>88.515184040588792</v>
       </c>
     </row>
-    <row r="88" spans="18:30" x14ac:dyDescent="0.25">
+    <row r="88" spans="17:30" x14ac:dyDescent="0.25">
       <c r="R88">
         <v>78</v>
       </c>
@@ -27150,7 +27150,7 @@
         <v>78.120119317783974</v>
       </c>
     </row>
-    <row r="89" spans="18:30" x14ac:dyDescent="0.25">
+    <row r="89" spans="17:30" x14ac:dyDescent="0.25">
       <c r="R89">
         <v>79</v>
       </c>
@@ -27201,7 +27201,11 @@
         <v>68.942996008030605</v>
       </c>
     </row>
-    <row r="90" spans="18:30" x14ac:dyDescent="0.25">
+    <row r="90" spans="17:30" x14ac:dyDescent="0.25">
+      <c r="Q90" s="11">
+        <f>S90-S91</f>
+        <v>8.8900288776322237E-6</v>
+      </c>
       <c r="R90">
         <v>80</v>
       </c>
@@ -27252,7 +27256,11 @@
         <v>60.841741844487842</v>
       </c>
     </row>
-    <row r="91" spans="18:30" x14ac:dyDescent="0.25">
+    <row r="91" spans="17:30" x14ac:dyDescent="0.25">
+      <c r="Q91">
+        <f>Q90/0.000002</f>
+        <v>4.4450144388161119</v>
+      </c>
       <c r="R91">
         <v>81</v>
       </c>
@@ -27303,7 +27311,7 @@
         <v>53.690717902325559</v>
       </c>
     </row>
-    <row r="92" spans="18:30" x14ac:dyDescent="0.25">
+    <row r="92" spans="17:30" x14ac:dyDescent="0.25">
       <c r="R92">
         <v>82</v>
       </c>
@@ -27354,7 +27362,7 @@
         <v>47.378848669119179</v>
       </c>
     </row>
-    <row r="93" spans="18:30" x14ac:dyDescent="0.25">
+    <row r="93" spans="17:30" x14ac:dyDescent="0.25">
       <c r="R93">
         <v>83</v>
       </c>
@@ -27405,7 +27413,7 @@
         <v>41.807958328863606</v>
       </c>
     </row>
-    <row r="94" spans="18:30" x14ac:dyDescent="0.25">
+    <row r="94" spans="17:30" x14ac:dyDescent="0.25">
       <c r="R94">
         <v>84</v>
       </c>
@@ -27456,7 +27464,7 @@
         <v>36.891291017120238</v>
       </c>
     </row>
-    <row r="95" spans="18:30" x14ac:dyDescent="0.25">
+    <row r="95" spans="17:30" x14ac:dyDescent="0.25">
       <c r="R95">
         <v>85</v>
       </c>
@@ -27507,7 +27515,7 @@
         <v>32.552197421202436</v>
       </c>
     </row>
-    <row r="96" spans="18:30" x14ac:dyDescent="0.25">
+    <row r="96" spans="17:30" x14ac:dyDescent="0.25">
       <c r="R96">
         <v>86</v>
       </c>
@@ -28341,8 +28349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AL747"/>
   <sheetViews>
-    <sheetView topLeftCell="A158" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I178" sqref="I178"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35899,7 +35907,7 @@
         <v>1.0375E-6</v>
       </c>
     </row>
-    <row r="177" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C177">
         <v>250</v>
       </c>
@@ -35951,7 +35959,7 @@
         <v>1.1433798307797849</v>
       </c>
     </row>
-    <row r="178" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C178">
         <v>251</v>
       </c>
@@ -35990,7 +35998,7 @@
         <v>1.5689999999999982E-2</v>
       </c>
     </row>
-    <row r="179" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C179">
         <v>252</v>
       </c>
@@ -36027,7 +36035,7 @@
         <v>7.1758518179739217E-2</v>
       </c>
     </row>
-    <row r="180" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C180">
         <v>253</v>
       </c>
@@ -36056,7 +36064,7 @@
         <v>1.0541666666666668E-6</v>
       </c>
     </row>
-    <row r="181" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C181">
         <v>254</v>
       </c>
@@ -36108,7 +36116,11 @@
         <v>0.77700077700077708</v>
       </c>
     </row>
-    <row r="182" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B182" s="9">
+        <f>D181-D182</f>
+        <v>3705.4191755441716</v>
+      </c>
       <c r="C182">
         <v>255</v>
       </c>
@@ -36147,7 +36159,7 @@
         <v>8.2800000000000651E-3</v>
       </c>
     </row>
-    <row r="183" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C183">
         <v>256</v>
       </c>
@@ -36184,7 +36196,7 @@
         <v>2.5734265734265939E-2</v>
       </c>
     </row>
-    <row r="184" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C184">
         <v>257</v>
       </c>
@@ -36213,7 +36225,7 @@
         <v>1.0708333333333334E-6</v>
       </c>
     </row>
-    <row r="185" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C185">
         <v>258</v>
       </c>
@@ -36265,7 +36277,7 @@
         <v>47.619047619047826</v>
       </c>
     </row>
-    <row r="186" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C186">
         <v>259</v>
       </c>
@@ -36304,7 +36316,7 @@
         <v>1.205999999999996E-2</v>
       </c>
     </row>
-    <row r="187" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C187">
         <v>260</v>
       </c>
@@ -36341,7 +36353,7 @@
         <v>2.2971428571428594</v>
       </c>
     </row>
-    <row r="188" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C188">
         <v>261</v>
       </c>
@@ -36370,7 +36382,7 @@
         <v>1.0875E-6</v>
       </c>
     </row>
-    <row r="189" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C189">
         <v>262</v>
       </c>
@@ -36422,7 +36434,7 @@
         <v>1.1441647597254003</v>
       </c>
     </row>
-    <row r="190" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C190">
         <v>263</v>
       </c>
@@ -36461,7 +36473,7 @@
         <v>1.5779999999999905E-2</v>
       </c>
     </row>
-    <row r="191" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C191">
         <v>264</v>
       </c>
@@ -36498,7 +36510,7 @@
         <v>7.2219679633866829E-2</v>
       </c>
     </row>
-    <row r="192" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C192">
         <v>265</v>
       </c>
